--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/migueljimenez/code/snippet-search-app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF20C93-2661-9A44-8672-BB38109104C0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F365C6-EF51-7E45-AF16-6075D218AB86}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14300" activeTab="1" xr2:uid="{1E5D2228-03B9-BF47-8C8C-3AA41A5E1D6F}"/>
+    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="1" xr2:uid="{1E5D2228-03B9-BF47-8C8C-3AA41A5E1D6F}"/>
   </bookViews>
   <sheets>
     <sheet name="strengths" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="486">
   <si>
     <t>Snippet</t>
   </si>
@@ -1056,9 +1056,6 @@
     <t>While Joao demonstrated active listening, he did not use it consistently throughout the simulations. In many occasions he advanced without reacting to the cues he received. This was particularly observable during the Team Member and Customer Conversations. Although Joao was flexible and recovered, the conversations ebbed and flowed in terms of mutual understanding, which also worked against the creation of rapport with his counterparts. Joao is encouraged to use his listening skills in a consistent basis, which will enable him to smooth out challenging conversations and get to heart of issues even faster.</t>
   </si>
   <si>
-    <t>While Joao delivered feedback effectively, he did not show signs of empowering others.  During the Team Member Conversation, Joao prescribed solutions for moving forward and did not use techniques to foster self-eficaccy in the employee. In the examples he provided during the interview, Joao coached others to identify root causes, but did not share much about the importance of letting others craft their own solutions or reinforcing progress. Joao is encouraged to further sharpen his coaching skills. Doing so will allow him to be better at unlocking others' potential.</t>
-  </si>
-  <si>
     <t>Joao's strong conceptual ability and business expertise sometimes stood in the way of communicating clear, crisp, actionable messages that others could follow and relate to. During the Prepared Presentation for example, Joao used many different business models and his slides were quite loaded with information, which made it harder for the audience to understand his thought process. During the Team Meeting, Joao used a large amount of abstract business jargon, which impaired his team to sync with his mental model of what the strategy session should look like. He is recommended to balance business frameworks with examples and storytelling; Joao should also consider translating abstract, high-level strategy to the language of day-to-day operations. Doing so will make him more effective at cutting through complexity or communicating strategy.</t>
   </si>
   <si>
@@ -1108,9 +1105,6 @@
   </si>
   <si>
     <t xml:space="preserve">In the Conflict Resolution, Christoph seemed to assume that his conversational partner was at fault for the current situation. He pushed problems towards his counterpart's side without fully exploring how his conversational partner saw matters. This made Christoph's conversational feel as if he was not taken into consideration, and just pushed towards a solution. He should spend more time understanding other's views of problems, which will make him better at creating shared understanding and dissecting problems jointly. </t>
-  </si>
-  <si>
-    <t>Christoph showed energy and a bias towards action in various exercise. However, he tended to move into actions without explaining the need for change or set stretching goals without expressing a clear rationale. Christoph sometimes diluted responsibility or got stuck in smaller details. This sometimes affected others' level of buy in, making it harder for Christoph to overcome resistance. In the future, Christoph should take more time providing context to others, At the same time, he should be mindful about the focus of the conversation and make sure accountability is retained. These behaviors will result in more advocacy towards his ideas.</t>
   </si>
   <si>
     <t xml:space="preserve">In the Employee Conversation, Christoph used statements that undermined the convicing power of his messages (i.e. "it might not be your fault"). He also tended to get stuck in side issues that were not core to the topic of the conversation. This could have stopped Christoph from bringing his conversational partner along in change. He is encouraged to transfer his ability to own his messages to all situations and remain focused on the topic at hand, which will then decrease the chances of losing traction in change management conversations. </t>
@@ -1255,9 +1249,6 @@
     <t>In the peer conversation, Tiffany left the conversation without agreements or mutually agreed decisions. Thus, the follow up once the conflict had been resolved was put at risk. She should make sure that next steps and responsibilities are made explicit at the end of conversations, which will help her maximize retention of accountability.</t>
   </si>
   <si>
-    <t>In Prepared Presentation, Tiffany made a good conceptual outline of her problem at hand but she did not operationalize it into an action plan and did not define metrics for success. This made took solidity away from her proposal, as the audience was left unsure about how it would be implemented. In future presentations where Tiffany is asked to pitch her ideas, she is recommended to include a high-level implementation plan. Doing so will maximize her chances of getting buy-in from senior audiences.</t>
-  </si>
-  <si>
     <t>Tiffany missed some opportunities to position herself strongly or make binding decisions when required. This diluted her leadership impact and her reach when driving groups. To mitigate these, she is recommended to drive decision processes and make calls whenever required.</t>
   </si>
   <si>
@@ -1315,9 +1306,6 @@
     <t>In the Peer Conversation, Patrick left the conversation without agreeing on actions and decisions. This could have endangered the follow up as responsibilities were not clear. At the closure of conversations, Patrick is translate the discussion into actions items, which will help him ensure that the workflow continues once the conversation has ended.</t>
   </si>
   <si>
-    <t>While driven to achieve, Patrick did not always stop to sense-check his proposals. He sometimes agreed to some decisions that could have damaged the organization, and mixed important conceptual buckets when presenting his ideas. This could have affected the implementation of his ideas. He is encouraged to pressure-test the assumptions behind his ideas, which will make these more robust. (peer conversation, prepared presentation)ç</t>
-  </si>
-  <si>
     <t>During the Peer Conversation, Patrick agreed to proposals that would have endangered the cultural integration depicted on the case. While he should not lose his sense of urgency, he is invited to spend enough time considering the repercussions of binding organizational decisions. In doing so, Patrick will further improve his transformational leadership skills.</t>
   </si>
   <si>
@@ -1354,9 +1342,6 @@
     <t>During the Prepared Presentation, Kenon spent very little time in explaining the key business drivers of the current situation in his region, and moved almost immediately to explain his plan, which remained high level. As there was not enough of a business case built upfront, his recommendation came across as abstract, overly generalistic/unrooted from reality. He should substantiate his ideas further.</t>
   </si>
   <si>
-    <t>Kenon did not display active Listening and and did not building on the input that he got. He also did not ask deeper "why" type questions that would have allowed him to really understand the reality of his counterparts. This diminished Kenon´s ability to build rapport and connect with others.</t>
-  </si>
-  <si>
     <t>During the Employee Conversation, Kenon did not respond to the conversational cues (both verbal and non-verbal)that he got from his conversational partner. Thus, the employee did not feel understood and did not feel as her perspective really mattered. He should listen more actively and be more responsive in other to be able to involve others genuinely.</t>
   </si>
   <si>
@@ -1402,9 +1387,6 @@
     <t>Guido did not demonstrate accountability during the exercises. He frequently deferred to a chain of command and did not own decisions and targets. From a leadership standpoint, this negatively affected his executive presence. Especially when stepping in the shoes of executive roles, Guido is advised to retain ownership whenever giving guidance, providing recommendations or making decisions. Doing so will enhance his credibility.</t>
   </si>
   <si>
-    <t>While innovative in his approach, Giorgos ideas came acsross as overly advanced considering the maturity of the organization he was applying to lead. This left a gap between Giorgos' plans and the organization's ability to execute. While he should lose his willingness to disrupt, Giorgos is invited to consider middle-ground solutions that are crafted in the language of the organization that will adopt them. Doing so will help him to increase his chances of success when implementing and pitching novel concepts.</t>
-  </si>
-  <si>
     <t>Giorgos had difficulty connecting with his counterparts, especially during the 1 on 1 discussions. He went straight into task without taking time to build relationships, and did not show explicit signs of empathy, such as reacting to others' emotions or acknowledging concerns and resistance. On occasion, he also used wording that increased friction in the conversations. This stopped him from influencing others and bringing them onboard. While superb in driving results, Giorgos is encouraged to further strengthen his interpersonal skills. This will boost his performance on a wide range of leadership situations</t>
   </si>
   <si>
@@ -1414,9 +1396,6 @@
     <t>Giorgos body language did not support his intent. His facial expression remained unchanged during the various exchanges, and his gestures could come across as forceful to his conversational partners, who then felt attacked and chose to disengage from the discussion. He is recommended to show a more relaxed body language and be conscious about what his gestures might signal. He will thus be more effective at supporting his messages as well as building rapport with others.</t>
   </si>
   <si>
-    <t>Miguel</t>
-  </si>
-  <si>
     <t>Achieving Results</t>
   </si>
   <si>
@@ -1444,6 +1423,9 @@
     <t>Decision Making</t>
   </si>
   <si>
+    <t>achieving Results</t>
+  </si>
+  <si>
     <t>Tiffany was effective at influencing. In several exercises, she looked for alternative ways of using arguments and could frame information in a way that was compelling to his counterparts. Consequently, she could win others over and ensure buy-in.</t>
   </si>
   <si>
@@ -1493,6 +1475,27 @@
   </si>
   <si>
     <t>While results driven, Praveen came across as overly stuck on processes and guidelines. This stopped him from moving conversations forward. In both role play exercises, Praveen spent quite some time covering small details and pushing to enforce a process without articulating the value behind it. This prevented him from displaying flexibility or even connecting with his conversational partners.</t>
+  </si>
+  <si>
+    <t>While Joao delivered feedback effectively, he did not show signs of empowering others.  During the Team Member Conversation, Joao prescribed solutions for moving forward and did not use techniques to foster self-efficacy in the employee. In the examples he provided during the interview, Joao coached others to identify root causes, but did not share much about the importance of letting others craft their own solutions or reinforcing progress. Joao is encouraged to further sharpen his coaching skills. Doing so will allow him to be better at unlocking others' potential.</t>
+  </si>
+  <si>
+    <t>Christoph showed energy and a bias towards action in various exercises. However, he tended to move into actions without explaining the need for change or set stretching goals without expressing a clear rationale. Christoph sometimes diluted responsibility or got stuck in smaller details. This sometimes affected others' level of buy in, making it harder for Christoph to overcome resistance. In the future, Christoph should take more time providing context to others, At the same time, he should be mindful about the focus of the conversation and make sure accountability is retained. These behaviors will result in more advocacy towards his ideas.</t>
+  </si>
+  <si>
+    <t>In the Prepared Presentation, Tiffany made a good conceptual outline of her problem at hand but she did not operationalize it into an action plan and did not define metrics for success. This made took solidity away from her proposal, as the audience was left unsure about how it would be implemented. In future presentations where Tiffany is asked to pitch her ideas, she is recommended to include a high-level implementation plan. Doing so will maximize her chances of getting buy-in from senior audiences.</t>
+  </si>
+  <si>
+    <t>While driven to achieve, Patrick did not always stop to sense-check his proposals. He sometimes agreed to some decisions that could have damaged the organization, and mixed important conceptual buckets when presenting his ideas. This could have affected the implementation of his ideas. He is encouraged to pressure-test the assumptions behind his ideas, which will make these more robust. (peer conversation, prepared presentation)</t>
+  </si>
+  <si>
+    <t>Kenon did not display active listening and and did not building on the input that he got. He also did not ask deeper "why" type questions that would have allowed him to really understand the reality of his counterparts. This diminished Kenon´s ability to build rapport and connect with others.</t>
+  </si>
+  <si>
+    <t>Interview</t>
+  </si>
+  <si>
+    <t>While innovative in his approach, Giorgos ideas came across as overly advanced considering the maturity of the organization he was applying to lead. This left a gap between Giorgos' plans and the organization's ability to execute. While he should lose his willingness to disrupt, Giorgos is invited to consider middle-ground solutions that are crafted in the language of the organization that will adopt them. Doing so will help him to increase his chances of success when implementing and pitching novel concepts.</t>
   </si>
 </sst>
 </file>
@@ -1947,8 +1950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A919D8BC-4DAD-6C40-85B3-AE1CBC1CAA41}">
   <dimension ref="A1:E230"/>
   <sheetViews>
-    <sheetView topLeftCell="A223" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A1048527" workbookViewId="0">
+      <selection activeCell="C1048576" sqref="C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1966,7 +1969,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1980,10 +1983,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="E2" s="14"/>
     </row>
@@ -1992,10 +1995,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="144">
@@ -2003,10 +2006,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="80">
@@ -2014,10 +2017,10 @@
         <v>7</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="112">
@@ -2025,10 +2028,10 @@
         <v>12</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="128">
@@ -2036,13 +2039,10 @@
         <v>13</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>473</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="96">
@@ -2050,10 +2050,10 @@
         <v>14</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="96">
@@ -2061,10 +2061,10 @@
         <v>15</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="96">
@@ -2072,10 +2072,10 @@
         <v>16</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="64">
@@ -2083,10 +2083,10 @@
         <v>17</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="96">
@@ -2094,10 +2094,10 @@
         <v>18</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="112">
@@ -2105,10 +2105,10 @@
         <v>19</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="80">
@@ -2116,10 +2116,10 @@
         <v>20</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="96">
@@ -2127,10 +2127,10 @@
         <v>21</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="128">
@@ -2138,10 +2138,10 @@
         <v>22</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="128">
@@ -2149,10 +2149,10 @@
         <v>23</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="80">
@@ -2160,10 +2160,10 @@
         <v>24</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="144">
@@ -2171,10 +2171,10 @@
         <v>25</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="128">
@@ -2182,10 +2182,10 @@
         <v>26</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="128">
@@ -2193,10 +2193,10 @@
         <v>27</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="112">
@@ -2204,10 +2204,10 @@
         <v>28</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="153">
@@ -2215,10 +2215,10 @@
         <v>29</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="128">
@@ -2226,10 +2226,10 @@
         <v>30</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="144">
@@ -2237,10 +2237,10 @@
         <v>31</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="96">
@@ -2248,10 +2248,10 @@
         <v>32</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="96">
@@ -2259,10 +2259,10 @@
         <v>33</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="160">
@@ -2270,21 +2270,21 @@
         <v>34</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="128">
       <c r="A29" s="4" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="128">
@@ -2292,10 +2292,10 @@
         <v>35</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="112">
@@ -2303,10 +2303,10 @@
         <v>36</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="176">
@@ -2314,10 +2314,10 @@
         <v>37</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="112">
@@ -2325,10 +2325,10 @@
         <v>38</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="112">
@@ -2336,10 +2336,10 @@
         <v>39</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="128">
@@ -2347,10 +2347,10 @@
         <v>40</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="176">
@@ -2358,10 +2358,10 @@
         <v>41</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="128">
@@ -2369,10 +2369,10 @@
         <v>42</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="112">
@@ -2380,10 +2380,10 @@
         <v>43</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="96">
@@ -2391,10 +2391,10 @@
         <v>44</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="96">
@@ -2402,10 +2402,10 @@
         <v>45</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="96">
@@ -2413,10 +2413,10 @@
         <v>46</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="128">
@@ -2424,10 +2424,10 @@
         <v>47</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="105">
@@ -2435,10 +2435,10 @@
         <v>48</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="105">
@@ -2446,10 +2446,10 @@
         <v>49</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="60">
@@ -2457,10 +2457,10 @@
         <v>50</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="75">
@@ -2468,10 +2468,10 @@
         <v>51</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="112">
@@ -2479,10 +2479,10 @@
         <v>52</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="96">
@@ -2490,10 +2490,10 @@
         <v>53</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="80">
@@ -2501,10 +2501,10 @@
         <v>54</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="96">
@@ -2512,10 +2512,10 @@
         <v>55</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="96">
@@ -2523,10 +2523,10 @@
         <v>56</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="80">
@@ -2534,10 +2534,10 @@
         <v>57</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="112">
@@ -2545,10 +2545,10 @@
         <v>58</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="64">
@@ -2556,10 +2556,10 @@
         <v>59</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="48">
@@ -2567,10 +2567,10 @@
         <v>60</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="112">
@@ -2578,10 +2578,10 @@
         <v>61</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="80">
@@ -2589,10 +2589,10 @@
         <v>62</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="80">
@@ -2600,10 +2600,10 @@
         <v>63</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="48">
@@ -2611,10 +2611,10 @@
         <v>64</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="80">
@@ -2622,10 +2622,10 @@
         <v>65</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="64">
@@ -2633,10 +2633,10 @@
         <v>66</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="48">
@@ -2644,10 +2644,10 @@
         <v>67</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="64">
@@ -2655,10 +2655,10 @@
         <v>68</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="64">
@@ -2666,10 +2666,10 @@
         <v>69</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="64">
@@ -2677,10 +2677,10 @@
         <v>70</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="64">
@@ -2688,10 +2688,10 @@
         <v>71</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="80">
@@ -2699,10 +2699,10 @@
         <v>72</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="64">
@@ -2710,10 +2710,10 @@
         <v>73</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="96">
@@ -2721,10 +2721,10 @@
         <v>74</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="64">
@@ -2732,10 +2732,10 @@
         <v>75</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="80">
@@ -2743,10 +2743,10 @@
         <v>76</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="64">
@@ -2754,10 +2754,10 @@
         <v>77</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="80">
@@ -2765,10 +2765,10 @@
         <v>78</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="80">
@@ -2776,10 +2776,10 @@
         <v>79</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="64">
@@ -2787,10 +2787,10 @@
         <v>80</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="64">
@@ -2798,10 +2798,10 @@
         <v>81</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="80">
@@ -2809,10 +2809,10 @@
         <v>82</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="96">
@@ -2820,10 +2820,10 @@
         <v>83</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="96">
@@ -2831,10 +2831,10 @@
         <v>84</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="96">
@@ -2842,10 +2842,10 @@
         <v>85</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="80">
@@ -2853,10 +2853,10 @@
         <v>86</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="96">
@@ -2864,10 +2864,10 @@
         <v>87</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="C82" s="15" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="96">
@@ -2875,10 +2875,10 @@
         <v>88</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="128">
@@ -2886,21 +2886,21 @@
         <v>89</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="C84" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="112">
       <c r="A85" s="4" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="C85" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="128">
@@ -2908,10 +2908,10 @@
         <v>90</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="C86" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="96">
@@ -2919,10 +2919,10 @@
         <v>91</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="96">
@@ -2930,10 +2930,10 @@
         <v>92</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="192">
@@ -2941,10 +2941,10 @@
         <v>93</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C89" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="128">
@@ -2952,10 +2952,10 @@
         <v>94</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="C90" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="112">
@@ -2963,10 +2963,10 @@
         <v>95</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="C91" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="144">
@@ -2974,10 +2974,10 @@
         <v>96</v>
       </c>
       <c r="B92" s="15" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="C92" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="128">
@@ -2985,10 +2985,10 @@
         <v>97</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="C93" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="192">
@@ -2996,10 +2996,10 @@
         <v>98</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="C94" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="128">
@@ -3007,10 +3007,10 @@
         <v>99</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C95" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="128">
@@ -3018,10 +3018,10 @@
         <v>100</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="C96" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="144">
@@ -3029,10 +3029,10 @@
         <v>101</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C97" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="144">
@@ -3040,10 +3040,10 @@
         <v>102</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C98" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="144">
@@ -3051,10 +3051,10 @@
         <v>103</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="C99" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="192">
@@ -3062,10 +3062,10 @@
         <v>104</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="C100" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="96">
@@ -3073,10 +3073,10 @@
         <v>105</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C101" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="144">
@@ -3084,10 +3084,10 @@
         <v>106</v>
       </c>
       <c r="B102" s="15" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="C102" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="128">
@@ -3095,10 +3095,10 @@
         <v>107</v>
       </c>
       <c r="B103" s="15" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="C103" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="144">
@@ -3106,10 +3106,10 @@
         <v>108</v>
       </c>
       <c r="B104" s="15" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C104" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="128">
@@ -3117,10 +3117,10 @@
         <v>109</v>
       </c>
       <c r="B105" s="15" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="C105" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="128">
@@ -3128,10 +3128,10 @@
         <v>110</v>
       </c>
       <c r="B106" s="15" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="C106" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="128">
@@ -3139,10 +3139,10 @@
         <v>111</v>
       </c>
       <c r="B107" s="15" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C107" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="90">
@@ -3150,10 +3150,10 @@
         <v>112</v>
       </c>
       <c r="B108" s="15" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C108" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="75">
@@ -3161,10 +3161,10 @@
         <v>113</v>
       </c>
       <c r="B109" s="15" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="C109" s="15" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="75">
@@ -3172,10 +3172,10 @@
         <v>114</v>
       </c>
       <c r="B110" s="15" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C110" s="15" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="75">
@@ -3183,10 +3183,10 @@
         <v>115</v>
       </c>
       <c r="B111" s="15" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="C111" s="15" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="105">
@@ -3194,10 +3194,10 @@
         <v>116</v>
       </c>
       <c r="B112" s="15" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="C112" s="15" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="90">
@@ -3205,10 +3205,10 @@
         <v>117</v>
       </c>
       <c r="B113" s="15" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="C113" s="15" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="105">
@@ -3216,10 +3216,10 @@
         <v>118</v>
       </c>
       <c r="B114" s="15" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C114" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="90">
@@ -3227,10 +3227,10 @@
         <v>119</v>
       </c>
       <c r="B115" s="15" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="C115" s="15" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="90">
@@ -3238,10 +3238,10 @@
         <v>120</v>
       </c>
       <c r="B116" s="15" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="C116" s="15" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="75">
@@ -3249,10 +3249,10 @@
         <v>121</v>
       </c>
       <c r="B117" s="15" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="C117" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="75">
@@ -3260,10 +3260,10 @@
         <v>122</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="C118" s="15" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="75">
@@ -3271,10 +3271,10 @@
         <v>123</v>
       </c>
       <c r="B119" s="15" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="C119" s="15" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="90">
@@ -3282,10 +3282,10 @@
         <v>124</v>
       </c>
       <c r="B120" s="15" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="C120" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="112">
@@ -3293,10 +3293,10 @@
         <v>125</v>
       </c>
       <c r="B121" s="15" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="C121" s="15" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="144">
@@ -3304,10 +3304,10 @@
         <v>126</v>
       </c>
       <c r="B122" s="15" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="C122" s="15" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="135">
@@ -3315,10 +3315,10 @@
         <v>127</v>
       </c>
       <c r="B123" s="15" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C123" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="112">
@@ -3326,10 +3326,10 @@
         <v>128</v>
       </c>
       <c r="B124" s="15" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C124" s="15" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="96">
@@ -3337,10 +3337,10 @@
         <v>129</v>
       </c>
       <c r="B125" s="15" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="C125" s="15" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="90">
@@ -3348,10 +3348,10 @@
         <v>130</v>
       </c>
       <c r="B126" s="15" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="C126" s="15" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="96">
@@ -3359,10 +3359,10 @@
         <v>131</v>
       </c>
       <c r="B127" s="15" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="C127" s="15" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="96">
@@ -3370,10 +3370,10 @@
         <v>132</v>
       </c>
       <c r="B128" s="15" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="C128" s="15" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="105">
@@ -3381,10 +3381,10 @@
         <v>133</v>
       </c>
       <c r="B129" s="15" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="C129" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="96">
@@ -3392,10 +3392,10 @@
         <v>134</v>
       </c>
       <c r="B130" s="15" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="C130" s="15" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="96">
@@ -3403,10 +3403,10 @@
         <v>135</v>
       </c>
       <c r="B131" s="15" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="C131" s="15" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="105">
@@ -3414,10 +3414,10 @@
         <v>136</v>
       </c>
       <c r="B132" s="15" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="C132" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="64">
@@ -3425,10 +3425,10 @@
         <v>137</v>
       </c>
       <c r="B133" s="15" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="C133" s="15" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="80">
@@ -3436,10 +3436,10 @@
         <v>138</v>
       </c>
       <c r="B134" s="15" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="C134" s="15" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="75">
@@ -3447,10 +3447,10 @@
         <v>139</v>
       </c>
       <c r="B135" s="15" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="C135" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="48">
@@ -3458,10 +3458,10 @@
         <v>140</v>
       </c>
       <c r="B136" s="15" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="C136" s="15" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="96">
@@ -3469,10 +3469,10 @@
         <v>141</v>
       </c>
       <c r="B137" s="15" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="C137" s="15" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="75">
@@ -3480,10 +3480,10 @@
         <v>142</v>
       </c>
       <c r="B138" s="15" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="C138" s="15" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="80">
@@ -3491,10 +3491,10 @@
         <v>143</v>
       </c>
       <c r="B139" s="15" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="C139" s="15" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="80">
@@ -3502,10 +3502,10 @@
         <v>144</v>
       </c>
       <c r="B140" s="15" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="C140" s="15" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="90">
@@ -3513,10 +3513,10 @@
         <v>145</v>
       </c>
       <c r="B141" s="15" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C141" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="64">
@@ -3524,10 +3524,10 @@
         <v>146</v>
       </c>
       <c r="B142" s="15" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="C142" s="15" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="112">
@@ -3535,10 +3535,10 @@
         <v>147</v>
       </c>
       <c r="B143" s="15" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="C143" s="15" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="105">
@@ -3546,10 +3546,10 @@
         <v>148</v>
       </c>
       <c r="B144" s="15" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C144" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="80">
@@ -3557,10 +3557,10 @@
         <v>149</v>
       </c>
       <c r="B145" s="15" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C145" s="15" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="80">
@@ -3568,10 +3568,10 @@
         <v>150</v>
       </c>
       <c r="B146" s="15" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="C146" s="15" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="90">
@@ -3579,10 +3579,10 @@
         <v>151</v>
       </c>
       <c r="B147" s="15" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C147" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="80">
@@ -3590,10 +3590,10 @@
         <v>152</v>
       </c>
       <c r="B148" s="15" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="C148" s="15" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="80">
@@ -3601,10 +3601,10 @@
         <v>153</v>
       </c>
       <c r="B149" s="15" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C149" s="15" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="90">
@@ -3612,10 +3612,10 @@
         <v>154</v>
       </c>
       <c r="B150" s="15" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="C150" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="80">
@@ -3623,10 +3623,10 @@
         <v>155</v>
       </c>
       <c r="B151" s="15" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="C151" s="15" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="80">
@@ -3634,10 +3634,10 @@
         <v>156</v>
       </c>
       <c r="B152" s="15" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="C152" s="15" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="112">
@@ -3645,10 +3645,10 @@
         <v>157</v>
       </c>
       <c r="B153" s="15" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="C153" s="15" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="96">
@@ -3656,10 +3656,10 @@
         <v>158</v>
       </c>
       <c r="B154" s="15" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="C154" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="96">
@@ -3667,10 +3667,10 @@
         <v>159</v>
       </c>
       <c r="B155" s="15" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="C155" s="15" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="96">
@@ -3678,10 +3678,10 @@
         <v>160</v>
       </c>
       <c r="B156" s="15" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="C156" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="112">
@@ -3689,10 +3689,10 @@
         <v>161</v>
       </c>
       <c r="B157" s="15" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C157" s="15" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="144">
@@ -3700,10 +3700,10 @@
         <v>162</v>
       </c>
       <c r="B158" s="15" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="C158" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="112">
@@ -3711,10 +3711,10 @@
         <v>163</v>
       </c>
       <c r="B159" s="15" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="C159" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="80">
@@ -3722,10 +3722,10 @@
         <v>164</v>
       </c>
       <c r="B160" s="15" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C160" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="144">
@@ -3733,10 +3733,10 @@
         <v>165</v>
       </c>
       <c r="B161" s="15" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C161" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="160">
@@ -3744,10 +3744,10 @@
         <v>166</v>
       </c>
       <c r="B162" s="15" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="C162" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="112">
@@ -3755,10 +3755,10 @@
         <v>167</v>
       </c>
       <c r="B163" s="15" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="C163" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="128">
@@ -3766,10 +3766,10 @@
         <v>168</v>
       </c>
       <c r="B164" s="15" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="C164" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="128">
@@ -3777,10 +3777,10 @@
         <v>173</v>
       </c>
       <c r="B165" s="15" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C165" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="112">
@@ -3788,10 +3788,10 @@
         <v>174</v>
       </c>
       <c r="B166" s="15" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C166" s="15" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="112">
@@ -3799,21 +3799,21 @@
         <v>175</v>
       </c>
       <c r="B167" s="15" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="C167" s="15" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="96">
       <c r="A168" s="11" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="B168" s="15" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="C168" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="128">
@@ -3821,10 +3821,10 @@
         <v>176</v>
       </c>
       <c r="B169" s="15" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="C169" s="15" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="112">
@@ -3832,10 +3832,10 @@
         <v>177</v>
       </c>
       <c r="B170" s="15" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="C170" s="15" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="96">
@@ -3843,10 +3843,10 @@
         <v>178</v>
       </c>
       <c r="B171" s="15" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="C171" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="96">
@@ -3854,10 +3854,10 @@
         <v>179</v>
       </c>
       <c r="B172" s="15" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="C172" s="15" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="112">
@@ -3865,10 +3865,10 @@
         <v>180</v>
       </c>
       <c r="B173" s="15" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="C173" s="15" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="112">
@@ -3876,10 +3876,10 @@
         <v>181</v>
       </c>
       <c r="B174" s="15" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="C174" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="64">
@@ -3887,10 +3887,10 @@
         <v>182</v>
       </c>
       <c r="B175" s="15" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="C175" s="15" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="96">
@@ -3898,10 +3898,10 @@
         <v>183</v>
       </c>
       <c r="B176" s="15" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="C176" s="15" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="144">
@@ -3909,10 +3909,10 @@
         <v>184</v>
       </c>
       <c r="B177" s="15" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C177" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="160">
@@ -3920,10 +3920,10 @@
         <v>185</v>
       </c>
       <c r="B178" s="15" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C178" s="15" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="128">
@@ -3931,10 +3931,10 @@
         <v>186</v>
       </c>
       <c r="B179" s="15" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C179" s="15" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="128">
@@ -3942,10 +3942,10 @@
         <v>187</v>
       </c>
       <c r="B180" s="15" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C180" s="15" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="144">
@@ -3953,10 +3953,10 @@
         <v>188</v>
       </c>
       <c r="B181" s="15" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="C181" s="15" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="128">
@@ -3964,10 +3964,10 @@
         <v>189</v>
       </c>
       <c r="B182" s="15" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C182" s="15" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="96">
@@ -3975,10 +3975,10 @@
         <v>190</v>
       </c>
       <c r="B183" s="15" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C183" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="80">
@@ -3986,21 +3986,21 @@
         <v>191</v>
       </c>
       <c r="B184" s="15" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C184" s="15" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="96">
       <c r="A185" s="11" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="B185" s="15" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="C185" s="15" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="80">
@@ -4008,10 +4008,10 @@
         <v>192</v>
       </c>
       <c r="B186" s="15" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="C186" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="96">
@@ -4019,10 +4019,10 @@
         <v>193</v>
       </c>
       <c r="B187" s="15" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="C187" s="15" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="96">
@@ -4030,10 +4030,10 @@
         <v>194</v>
       </c>
       <c r="B188" s="15" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="C188" s="15" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="96">
@@ -4041,10 +4041,10 @@
         <v>195</v>
       </c>
       <c r="B189" s="15" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="C189" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="112">
@@ -4052,10 +4052,10 @@
         <v>196</v>
       </c>
       <c r="B190" s="15" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="C190" s="15" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="128">
@@ -4063,10 +4063,10 @@
         <v>197</v>
       </c>
       <c r="B191" s="15" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="C191" s="15" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="112">
@@ -4074,10 +4074,10 @@
         <v>198</v>
       </c>
       <c r="B192" s="15" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="C192" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="80">
@@ -4085,10 +4085,10 @@
         <v>199</v>
       </c>
       <c r="B193" s="15" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="C193" s="15" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="112">
@@ -4096,10 +4096,10 @@
         <v>200</v>
       </c>
       <c r="B194" s="15" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="C194" s="15" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="112">
@@ -4107,10 +4107,10 @@
         <v>201</v>
       </c>
       <c r="B195" s="15" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C195" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="64">
@@ -4118,10 +4118,10 @@
         <v>202</v>
       </c>
       <c r="B196" s="15" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C196" s="15" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="112">
@@ -4129,10 +4129,10 @@
         <v>203</v>
       </c>
       <c r="B197" s="15" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="C197" s="15" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="80">
@@ -4140,10 +4140,10 @@
         <v>204</v>
       </c>
       <c r="B198" s="15" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="C198" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="64">
@@ -4151,10 +4151,10 @@
         <v>205</v>
       </c>
       <c r="B199" s="15" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="C199" s="15" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="96">
@@ -4162,10 +4162,10 @@
         <v>206</v>
       </c>
       <c r="B200" s="15" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="C200" s="15" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="96">
@@ -4173,10 +4173,10 @@
         <v>207</v>
       </c>
       <c r="B201" s="15" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="C201" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="112">
@@ -4184,10 +4184,10 @@
         <v>208</v>
       </c>
       <c r="B202" s="15" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C202" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="112">
@@ -4195,10 +4195,10 @@
         <v>209</v>
       </c>
       <c r="B203" s="15" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="C203" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="80">
@@ -4206,21 +4206,21 @@
         <v>210</v>
       </c>
       <c r="B204" s="15" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="C204" s="15" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="128">
       <c r="A205" s="8" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="B205" s="15" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="C205" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="96">
@@ -4228,10 +4228,10 @@
         <v>211</v>
       </c>
       <c r="B206" s="15" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="C206" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="80">
@@ -4239,10 +4239,10 @@
         <v>212</v>
       </c>
       <c r="B207" s="15" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="C207" s="15" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="96">
@@ -4250,10 +4250,10 @@
         <v>213</v>
       </c>
       <c r="B208" s="15" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="C208" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="96">
@@ -4261,10 +4261,10 @@
         <v>214</v>
       </c>
       <c r="B209" s="15" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C209" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="80">
@@ -4272,10 +4272,10 @@
         <v>215</v>
       </c>
       <c r="B210" s="15" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="C210" s="15" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="102">
@@ -4283,10 +4283,10 @@
         <v>216</v>
       </c>
       <c r="B211" s="15" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C211" s="15" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="80">
@@ -4294,10 +4294,10 @@
         <v>217</v>
       </c>
       <c r="B212" s="15" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="C212" s="15" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="64">
@@ -4305,10 +4305,10 @@
         <v>218</v>
       </c>
       <c r="B213" s="15" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="C213" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="48">
@@ -4316,10 +4316,10 @@
         <v>219</v>
       </c>
       <c r="B214" s="15" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="C214" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="64">
@@ -4327,10 +4327,10 @@
         <v>220</v>
       </c>
       <c r="B215" s="15" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="C215" s="15" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="80">
@@ -4338,10 +4338,10 @@
         <v>221</v>
       </c>
       <c r="B216" s="15" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="C216" s="15" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="48">
@@ -4349,10 +4349,10 @@
         <v>222</v>
       </c>
       <c r="B217" s="15" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="C217" s="15" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="80">
@@ -4360,10 +4360,10 @@
         <v>223</v>
       </c>
       <c r="B218" s="15" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C218" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="96">
@@ -4371,10 +4371,10 @@
         <v>224</v>
       </c>
       <c r="B219" s="15" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="C219" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="48">
@@ -4382,10 +4382,10 @@
         <v>225</v>
       </c>
       <c r="B220" s="15" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C220" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="80">
@@ -4393,10 +4393,10 @@
         <v>226</v>
       </c>
       <c r="B221" s="15" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C221" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="80">
@@ -4404,10 +4404,10 @@
         <v>227</v>
       </c>
       <c r="B222" s="15" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="C222" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="64">
@@ -4415,21 +4415,21 @@
         <v>228</v>
       </c>
       <c r="B223" s="15" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="C223" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="64">
       <c r="A224" s="4" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="B224" s="15" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="C224" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="80">
@@ -4437,10 +4437,10 @@
         <v>229</v>
       </c>
       <c r="B225" s="15" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C225" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="80">
@@ -4448,21 +4448,21 @@
         <v>230</v>
       </c>
       <c r="B226" s="15" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="C226" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="64">
       <c r="A227" s="4" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="B227" s="15" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="C227" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="80">
@@ -4470,10 +4470,10 @@
         <v>231</v>
       </c>
       <c r="B228" s="15" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="C228" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="96">
@@ -4481,10 +4481,10 @@
         <v>232</v>
       </c>
       <c r="B229" s="15" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="C229" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="48">
@@ -4492,10 +4492,10 @@
         <v>233</v>
       </c>
       <c r="B230" s="15" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="C230" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
   </sheetData>
@@ -4507,8 +4507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F060731-35FE-2848-B488-2657B95A6D77}">
   <dimension ref="A1:E238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" topLeftCell="A237" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B242" sqref="B242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4526,7 +4526,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -4540,10 +4540,10 @@
         <v>8</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="144">
@@ -4551,10 +4551,10 @@
         <v>9</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="160">
@@ -4562,10 +4562,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="96">
@@ -4573,10 +4573,10 @@
         <v>11</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="128">
@@ -4584,10 +4584,10 @@
         <v>234</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="112">
@@ -4595,10 +4595,10 @@
         <v>235</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="128">
@@ -4606,10 +4606,10 @@
         <v>236</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="160">
@@ -4617,10 +4617,10 @@
         <v>237</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="208">
@@ -4628,10 +4628,10 @@
         <v>238</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="128">
@@ -4639,10 +4639,10 @@
         <v>239</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="160">
@@ -4650,10 +4650,10 @@
         <v>240</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="144">
@@ -4661,10 +4661,10 @@
         <v>241</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="160">
@@ -4672,10 +4672,10 @@
         <v>242</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="144">
@@ -4683,10 +4683,10 @@
         <v>243</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="128">
@@ -4694,10 +4694,10 @@
         <v>244</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="192">
@@ -4705,10 +4705,10 @@
         <v>245</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="240">
@@ -4716,10 +4716,10 @@
         <v>246</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="144">
@@ -4727,10 +4727,10 @@
         <v>247</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="176">
@@ -4738,10 +4738,10 @@
         <v>248</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="304">
@@ -4749,10 +4749,10 @@
         <v>249</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="192">
@@ -4760,10 +4760,10 @@
         <v>250</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="160">
@@ -4771,10 +4771,10 @@
         <v>251</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="224">
@@ -4782,10 +4782,10 @@
         <v>252</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="160">
@@ -4793,10 +4793,10 @@
         <v>253</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="176">
@@ -4804,10 +4804,10 @@
         <v>254</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="144">
@@ -4815,10 +4815,10 @@
         <v>255</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="320">
@@ -4826,10 +4826,10 @@
         <v>256</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="192">
@@ -4837,10 +4837,10 @@
         <v>257</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="176">
@@ -4848,10 +4848,10 @@
         <v>258</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="176">
@@ -4859,10 +4859,10 @@
         <v>259</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="192">
@@ -4870,10 +4870,10 @@
         <v>260</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="208">
@@ -4881,10 +4881,10 @@
         <v>261</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="176">
@@ -4892,10 +4892,10 @@
         <v>262</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="192">
@@ -4903,10 +4903,10 @@
         <v>263</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="176">
@@ -4914,10 +4914,10 @@
         <v>264</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="192">
@@ -4925,10 +4925,10 @@
         <v>265</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="272">
@@ -4936,21 +4936,21 @@
         <v>266</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="128">
       <c r="A39" s="6" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="144">
@@ -4958,10 +4958,10 @@
         <v>267</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="128">
@@ -4969,10 +4969,10 @@
         <v>268</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="160">
@@ -4980,10 +4980,10 @@
         <v>269</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="144">
@@ -4991,10 +4991,10 @@
         <v>270</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="96">
@@ -5002,10 +5002,10 @@
         <v>271</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="128">
@@ -5013,10 +5013,10 @@
         <v>272</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="96">
@@ -5024,10 +5024,10 @@
         <v>273</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="96">
@@ -5035,10 +5035,10 @@
         <v>274</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="80">
@@ -5046,10 +5046,10 @@
         <v>275</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="144">
@@ -5057,10 +5057,10 @@
         <v>276</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="144">
@@ -5068,10 +5068,10 @@
         <v>277</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="128">
@@ -5079,10 +5079,10 @@
         <v>278</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="144">
@@ -5090,10 +5090,10 @@
         <v>279</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="112">
@@ -5101,10 +5101,10 @@
         <v>280</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="128">
@@ -5112,10 +5112,10 @@
         <v>281</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="112">
@@ -5123,925 +5123,2020 @@
         <v>282</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="144">
       <c r="A56" s="4" t="s">
         <v>283</v>
       </c>
+      <c r="B56" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="57" spans="1:3" ht="128">
       <c r="A57" s="4" t="s">
         <v>284</v>
       </c>
+      <c r="B57" s="15" t="s">
+        <v>458</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="58" spans="1:3" ht="404">
       <c r="A58" s="2" t="s">
         <v>285</v>
       </c>
+      <c r="B58" s="15" t="s">
+        <v>456</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>471</v>
+      </c>
     </row>
     <row r="59" spans="1:3" ht="96">
       <c r="A59" s="4" t="s">
         <v>286</v>
       </c>
+      <c r="B59" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="60" spans="1:3" ht="160">
       <c r="A60" s="4" t="s">
         <v>287</v>
       </c>
+      <c r="B60" s="15" t="s">
+        <v>457</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="61" spans="1:3" ht="128">
       <c r="A61" s="4" t="s">
         <v>288</v>
       </c>
+      <c r="B61" s="15" t="s">
+        <v>455</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="62" spans="1:3" ht="160">
       <c r="A62" s="4" t="s">
         <v>289</v>
       </c>
+      <c r="B62" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>471</v>
+      </c>
     </row>
     <row r="63" spans="1:3" ht="96">
       <c r="A63" s="4" t="s">
         <v>290</v>
       </c>
+      <c r="B63" s="15" t="s">
+        <v>456</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>471</v>
+      </c>
     </row>
     <row r="64" spans="1:3" ht="96">
       <c r="A64" s="4" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" ht="112">
+      <c r="B64" s="15" t="s">
+        <v>456</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="112">
       <c r="A65" s="4" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" ht="144">
+      <c r="B65" s="15" t="s">
+        <v>455</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="144">
       <c r="A66" s="4" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" ht="160">
+      <c r="B66" s="15" t="s">
+        <v>458</v>
+      </c>
+      <c r="C66" s="15" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="160">
       <c r="A67" s="4" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" ht="192">
+      <c r="B67" s="15" t="s">
+        <v>455</v>
+      </c>
+      <c r="C67" s="15" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="192">
       <c r="A68" s="4" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" ht="112">
+      <c r="B68" s="15" t="s">
+        <v>460</v>
+      </c>
+      <c r="C68" s="15" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="112">
       <c r="A69" s="4" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" ht="144">
+      <c r="B69" s="15" t="s">
+        <v>458</v>
+      </c>
+      <c r="C69" s="15" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="144">
       <c r="A70" s="4" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" ht="112">
+      <c r="B70" s="15" t="s">
+        <v>456</v>
+      </c>
+      <c r="C70" s="15" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="112">
       <c r="A71" s="4" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" ht="112">
+      <c r="B71" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="C71" s="15" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="112">
       <c r="A72" s="4" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" ht="176">
+      <c r="B72" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="C72" s="15" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="176">
       <c r="A73" s="4" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" ht="112">
+      <c r="B73" s="15" t="s">
+        <v>455</v>
+      </c>
+      <c r="C73" s="15" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="112">
       <c r="A74" s="4" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" ht="128">
+      <c r="B74" s="15" t="s">
+        <v>456</v>
+      </c>
+      <c r="C74" s="15" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="128">
       <c r="A75" s="4" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" ht="144">
+      <c r="B75" s="15" t="s">
+        <v>458</v>
+      </c>
+      <c r="C75" s="15" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="144">
       <c r="A76" s="4" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" ht="144">
+      <c r="B76" s="15" t="s">
+        <v>455</v>
+      </c>
+      <c r="C76" s="15" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="144">
       <c r="A77" s="4" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" ht="112">
+      <c r="B77" s="15" t="s">
+        <v>456</v>
+      </c>
+      <c r="C77" s="15" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="112">
       <c r="A78" s="4" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" ht="80">
+      <c r="B78" s="15" t="s">
+        <v>456</v>
+      </c>
+      <c r="C78" s="15" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="80">
       <c r="A79" s="4" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" ht="160">
+      <c r="B79" s="15" t="s">
+        <v>458</v>
+      </c>
+      <c r="C79" s="15" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="160">
       <c r="A80" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" ht="112">
+      <c r="B80" s="15" t="s">
+        <v>459</v>
+      </c>
+      <c r="C80" s="15" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="112">
       <c r="A81" s="4" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" ht="96">
+      <c r="B81" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="C81" s="15" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="96">
       <c r="A82" s="4" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" ht="160">
+      <c r="B82" s="15" t="s">
+        <v>455</v>
+      </c>
+      <c r="C82" s="15" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="160">
       <c r="A83" s="4" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" ht="128">
+      <c r="B83" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="C83" s="15" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="128">
       <c r="A84" s="4" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" ht="128">
+      <c r="B84" s="15" t="s">
+        <v>458</v>
+      </c>
+      <c r="C84" s="15" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="128">
       <c r="A85" s="4" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" ht="160">
+      <c r="B85" s="15" t="s">
+        <v>458</v>
+      </c>
+      <c r="C85" s="15" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="160">
       <c r="A86" s="4" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" ht="112">
+      <c r="B86" s="15" t="s">
+        <v>460</v>
+      </c>
+      <c r="C86" s="15" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="112">
       <c r="A87" s="4" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" ht="96">
+      <c r="B87" s="15" t="s">
+        <v>458</v>
+      </c>
+      <c r="C87" s="15" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="96">
       <c r="A88" s="4" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" ht="112">
+      <c r="B88" s="15" t="s">
+        <v>455</v>
+      </c>
+      <c r="C88" s="15" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="112">
       <c r="A89" s="4" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" ht="176">
+      <c r="B89" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="C89" s="15" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="176">
       <c r="A90" s="4" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" ht="112">
+      <c r="B90" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="C90" s="15" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="112">
       <c r="A91" s="4" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" ht="128">
+      <c r="B91" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="C91" s="15" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="128">
       <c r="A92" s="4" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" ht="112">
+      <c r="B92" s="15" t="s">
+        <v>458</v>
+      </c>
+      <c r="C92" s="15" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="112">
       <c r="A93" s="4" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" ht="96">
+      <c r="B93" s="15" t="s">
+        <v>456</v>
+      </c>
+      <c r="C93" s="15" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="96">
       <c r="A94" s="4" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" ht="160">
+      <c r="B94" s="15" t="s">
+        <v>460</v>
+      </c>
+      <c r="C94" s="15" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="160">
       <c r="A95" s="4" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" ht="96">
+      <c r="B95" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="C95" s="15" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="96">
       <c r="A96" s="4" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" ht="96">
+      <c r="B96" s="15" t="s">
+        <v>458</v>
+      </c>
+      <c r="C96" s="15" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="96">
       <c r="A97" s="4" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" ht="144">
+      <c r="B97" s="15" t="s">
+        <v>459</v>
+      </c>
+      <c r="C97" s="15" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="144">
       <c r="A98" s="4" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" ht="224">
+      <c r="B98" s="15" t="s">
+        <v>458</v>
+      </c>
+      <c r="C98" s="15" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="224">
       <c r="A99" s="4" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" ht="176">
+      <c r="B99" s="15" t="s">
+        <v>456</v>
+      </c>
+      <c r="C99" s="15" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="176">
       <c r="A100" s="4" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" ht="176">
+      <c r="B100" s="15" t="s">
+        <v>455</v>
+      </c>
+      <c r="C100" s="15" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="176">
       <c r="A101" s="4" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" ht="224">
+      <c r="B101" s="15" t="s">
+        <v>457</v>
+      </c>
+      <c r="C101" s="15" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="224">
       <c r="A102" s="4" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" ht="192">
+      <c r="B102" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="C102" s="15" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="192">
       <c r="A103" s="4" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" ht="192">
+      <c r="B103" s="15" t="s">
+        <v>455</v>
+      </c>
+      <c r="C103" s="15" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="192">
       <c r="A104" s="4" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" ht="128">
+      <c r="B104" s="15" t="s">
+        <v>457</v>
+      </c>
+      <c r="C104" s="15" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="128">
       <c r="A105" s="4" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" ht="160">
+      <c r="B105" s="15" t="s">
+        <v>458</v>
+      </c>
+      <c r="C105" s="15" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="160">
       <c r="A106" s="4" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" ht="144">
+      <c r="B106" s="15" t="s">
+        <v>456</v>
+      </c>
+      <c r="C106" s="15" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="144">
       <c r="A107" s="4" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" ht="208">
+      <c r="B107" s="15" t="s">
+        <v>455</v>
+      </c>
+      <c r="C107" s="15" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="208">
       <c r="A108" s="4" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" ht="160">
+      <c r="B108" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="C108" s="15" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="160">
       <c r="A109" s="4" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" ht="128">
+      <c r="B109" s="15" t="s">
+        <v>460</v>
+      </c>
+      <c r="C109" s="15" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="128">
       <c r="A110" s="4" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" ht="208">
+      <c r="B110" s="15" t="s">
+        <v>453</v>
+      </c>
+      <c r="C110" s="15" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="208">
       <c r="A111" s="4" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" ht="304">
+      <c r="B111" s="15" t="s">
+        <v>456</v>
+      </c>
+      <c r="C111" s="15" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="304">
       <c r="A112" s="4" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" ht="224">
+      <c r="B112" s="15" t="s">
+        <v>455</v>
+      </c>
+      <c r="C112" s="15" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="224">
       <c r="A113" s="4" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" ht="176">
+      <c r="B113" s="15" t="s">
+        <v>456</v>
+      </c>
+      <c r="C113" s="15" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="176">
       <c r="A114" s="4" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" ht="160">
+      <c r="B114" s="15" t="s">
+        <v>458</v>
+      </c>
+      <c r="C114" s="15" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="160">
       <c r="A115" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="B115" s="15" t="s">
+        <v>457</v>
+      </c>
+      <c r="C115" s="15" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="240">
+      <c r="A116" s="4" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" ht="240">
-      <c r="A116" s="4" t="s">
+      <c r="B116" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="C116" s="15" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="224">
+      <c r="A117" s="4" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" ht="224">
-      <c r="A117" s="4" t="s">
+      <c r="B117" s="15" t="s">
+        <v>457</v>
+      </c>
+      <c r="C117" s="15" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="144">
+      <c r="A118" s="4" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" ht="144">
-      <c r="A118" s="4" t="s">
+      <c r="B118" s="15" t="s">
+        <v>455</v>
+      </c>
+      <c r="C118" s="15" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="208">
+      <c r="A119" s="4" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" ht="208">
-      <c r="A119" s="4" t="s">
+      <c r="B119" s="15" t="s">
+        <v>455</v>
+      </c>
+      <c r="C119" s="15" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="240">
+      <c r="A120" s="4" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" ht="240">
-      <c r="A120" s="4" t="s">
+      <c r="B120" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="C120" s="15" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="120">
+      <c r="A121" s="9" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" ht="120">
-      <c r="A121" s="9" t="s">
+      <c r="B121" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="C121" s="15" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="120">
+      <c r="A122" s="9" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" ht="120">
-      <c r="A122" s="9" t="s">
+      <c r="B122" s="15" t="s">
+        <v>461</v>
+      </c>
+      <c r="C122" s="15" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="120">
+      <c r="A123" s="9" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" ht="120">
-      <c r="A123" s="9" t="s">
+      <c r="B123" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="C123" s="15" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="165">
+      <c r="A124" s="9" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" ht="165">
-      <c r="A124" s="9" t="s">
+      <c r="B124" s="15" t="s">
+        <v>455</v>
+      </c>
+      <c r="C124" s="15" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="90">
+      <c r="A125" s="9" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" ht="90">
-      <c r="A125" s="9" t="s">
+      <c r="B125" s="15" t="s">
+        <v>455</v>
+      </c>
+      <c r="C125" s="15" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="120">
+      <c r="A126" s="9" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" ht="120">
-      <c r="A126" s="9" t="s">
+      <c r="B126" s="15" t="s">
+        <v>455</v>
+      </c>
+      <c r="C126" s="15" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="135">
+      <c r="A127" s="9" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" ht="135">
-      <c r="A127" s="9" t="s">
+      <c r="B127" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="C127" s="15" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="144">
+      <c r="A128" s="4" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" ht="144">
-      <c r="A128" s="4" t="s">
+      <c r="B128" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="C128" s="15" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="128">
+      <c r="A129" s="4" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" ht="128">
-      <c r="A129" s="4" t="s">
+      <c r="B129" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="C129" s="15" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="165">
+      <c r="A130" s="9" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" ht="165">
-      <c r="A130" s="9" t="s">
+      <c r="B130" s="15" t="s">
+        <v>458</v>
+      </c>
+      <c r="C130" s="15" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="144">
+      <c r="A131" s="10" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" ht="144">
-      <c r="A131" s="10" t="s">
+      <c r="B131" s="15" t="s">
+        <v>457</v>
+      </c>
+      <c r="C131" s="15" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="144">
+      <c r="A132" s="10" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" ht="144">
-      <c r="A132" s="10" t="s">
+      <c r="B132" s="15" t="s">
+        <v>456</v>
+      </c>
+      <c r="C132" s="15" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="180">
+      <c r="A133" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="B133" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="C133" s="15" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="144">
+      <c r="A134" s="10" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" ht="180">
-      <c r="A133" s="9" t="s">
+      <c r="B134" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="C134" s="15" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="160">
+      <c r="A135" s="10" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" ht="144">
-      <c r="A134" s="10" t="s">
+      <c r="B135" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="C135" s="15" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="165">
+      <c r="A136" s="9" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" ht="160">
-      <c r="A135" s="10" t="s">
+      <c r="B136" s="15" t="s">
+        <v>456</v>
+      </c>
+      <c r="C136" s="15" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="144">
+      <c r="A137" s="10" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" ht="165">
-      <c r="A136" s="9" t="s">
+      <c r="B137" s="15" t="s">
+        <v>458</v>
+      </c>
+      <c r="C137" s="15" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="112">
+      <c r="A138" s="10" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" ht="144">
-      <c r="A137" s="10" t="s">
+      <c r="B138" s="15" t="s">
+        <v>455</v>
+      </c>
+      <c r="C138" s="15" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="150">
+      <c r="A139" s="9" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" ht="112">
-      <c r="A138" s="10" t="s">
+      <c r="B139" s="15" t="s">
+        <v>455</v>
+      </c>
+      <c r="C139" s="15" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="144">
+      <c r="A140" s="10" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" ht="150">
-      <c r="A139" s="9" t="s">
+      <c r="B140" s="15" t="s">
+        <v>455</v>
+      </c>
+      <c r="C140" s="15" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="112">
+      <c r="A141" s="10" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" ht="144">
-      <c r="A140" s="10" t="s">
+      <c r="B141" s="15" t="s">
+        <v>455</v>
+      </c>
+      <c r="C141" s="15" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="120">
+      <c r="A142" s="9" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" ht="112">
-      <c r="A141" s="10" t="s">
+      <c r="B142" s="15" t="s">
+        <v>455</v>
+      </c>
+      <c r="C142" s="15" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="160">
+      <c r="A143" s="10" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" ht="120">
-      <c r="A142" s="9" t="s">
+      <c r="B143" s="15" t="s">
+        <v>456</v>
+      </c>
+      <c r="C143" s="15" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="128">
+      <c r="A144" s="10" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" ht="160">
-      <c r="A143" s="10" t="s">
+      <c r="B144" s="15" t="s">
+        <v>457</v>
+      </c>
+      <c r="C144" s="15" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="120">
+      <c r="A145" s="9" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" ht="128">
-      <c r="A144" s="10" t="s">
+      <c r="B145" s="15" t="s">
+        <v>456</v>
+      </c>
+      <c r="C145" s="15" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="112">
+      <c r="A146" s="10" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" ht="120">
-      <c r="A145" s="9" t="s">
+      <c r="B146" s="15" t="s">
+        <v>456</v>
+      </c>
+      <c r="C146" s="15" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="96">
+      <c r="A147" s="10" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" ht="112">
-      <c r="A146" s="10" t="s">
+      <c r="B147" s="15" t="s">
+        <v>455</v>
+      </c>
+      <c r="C147" s="15" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="135">
+      <c r="A148" s="12" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" ht="96">
-      <c r="A147" s="10" t="s">
+      <c r="B148" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="C148" s="15" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="112">
+      <c r="A149" s="4" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" ht="135">
-      <c r="A148" s="12" t="s">
+      <c r="B149" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="C149" s="15" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="112">
+      <c r="A150" s="4" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" ht="112">
-      <c r="A149" s="4" t="s">
+      <c r="B150" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="C150" s="15" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="135">
+      <c r="A151" s="9" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" ht="112">
-      <c r="A150" s="4" t="s">
+      <c r="B151" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="C151" s="15" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="112">
+      <c r="A152" s="10" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" ht="135">
-      <c r="A151" s="9" t="s">
+      <c r="B152" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="C152" s="15" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="144">
+      <c r="A153" s="10" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" ht="112">
-      <c r="A152" s="10" t="s">
+      <c r="B153" s="15" t="s">
+        <v>456</v>
+      </c>
+      <c r="C153" s="15" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="135">
+      <c r="A154" s="9" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" ht="144">
-      <c r="A153" s="10" t="s">
+      <c r="B154" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="C154" s="15" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="136">
+      <c r="A155" s="4" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" ht="135">
-      <c r="A154" s="9" t="s">
+      <c r="B155" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="C155" s="15" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="144">
+      <c r="A156" s="10" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" ht="136">
-      <c r="A155" s="4" t="s">
+      <c r="B156" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="C156" s="15" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="150">
+      <c r="A157" s="9" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" ht="144">
-      <c r="A156" s="10" t="s">
+      <c r="B157" s="15" t="s">
+        <v>455</v>
+      </c>
+      <c r="C157" s="15" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="144">
+      <c r="A158" s="10" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" ht="150">
-      <c r="A157" s="9" t="s">
+      <c r="B158" s="15" t="s">
+        <v>455</v>
+      </c>
+      <c r="C158" s="15" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="112">
+      <c r="A159" s="10" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" ht="144">
-      <c r="A158" s="10" t="s">
+      <c r="B159" s="15" t="s">
+        <v>455</v>
+      </c>
+      <c r="C159" s="15" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="120">
+      <c r="A160" s="9" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" ht="112">
-      <c r="A159" s="10" t="s">
+      <c r="B160" s="15" t="s">
+        <v>457</v>
+      </c>
+      <c r="C160" s="15" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="160">
+      <c r="A161" s="4" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" ht="120">
-      <c r="A160" s="9" t="s">
+      <c r="B161" s="15" t="s">
+        <v>458</v>
+      </c>
+      <c r="C161" s="15" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="224">
+      <c r="A162" s="4" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" ht="160">
-      <c r="A161" s="4" t="s">
+      <c r="B162" s="15" t="s">
+        <v>455</v>
+      </c>
+      <c r="C162" s="15" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="192">
+      <c r="A163" s="4" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" ht="224">
-      <c r="A162" s="4" t="s">
+      <c r="B163" s="15" t="s">
+        <v>457</v>
+      </c>
+      <c r="C163" s="15" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="160">
+      <c r="A164" s="4" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" ht="192">
-      <c r="A163" s="4" t="s">
+      <c r="B164" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="C164" s="15" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="176">
+      <c r="A165" s="4" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" ht="160">
-      <c r="A164" s="4" t="s">
+      <c r="B165" s="15" t="s">
+        <v>455</v>
+      </c>
+      <c r="C165" s="15" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="192">
+      <c r="A166" s="4" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" ht="176">
-      <c r="A165" s="4" t="s">
+      <c r="B166" s="15" t="s">
+        <v>458</v>
+      </c>
+      <c r="C166" s="15" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="160">
+      <c r="A167" s="4" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" ht="192">
-      <c r="A166" s="4" t="s">
+      <c r="B167" s="15" t="s">
+        <v>457</v>
+      </c>
+      <c r="C167" s="15" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="112">
+      <c r="A168" s="4" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" ht="160">
-      <c r="A167" s="4" t="s">
+      <c r="B168" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="C168" s="15" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="176">
+      <c r="A169" s="4" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" ht="112">
-      <c r="A168" s="4" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" ht="192">
-      <c r="A169" s="4" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" ht="192">
+      <c r="B169" s="15" t="s">
+        <v>458</v>
+      </c>
+      <c r="C169" s="15" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="192">
       <c r="A170" s="4" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" ht="224">
+      <c r="B170" s="15" t="s">
+        <v>459</v>
+      </c>
+      <c r="C170" s="15" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="224">
       <c r="A171" s="4" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" ht="240">
+      <c r="B171" s="15" t="s">
+        <v>455</v>
+      </c>
+      <c r="C171" s="15" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="240">
       <c r="A172" s="4" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" ht="176">
+      <c r="B172" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="C172" s="15" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="176">
       <c r="A173" s="4" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" ht="160">
+      <c r="B173" s="15" t="s">
+        <v>457</v>
+      </c>
+      <c r="C173" s="15" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="160">
       <c r="A174" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="B174" s="15" t="s">
+        <v>460</v>
+      </c>
+      <c r="C174" s="15" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="192">
+      <c r="A175" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="B175" s="15" t="s">
+        <v>455</v>
+      </c>
+      <c r="C175" s="15" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="128">
+      <c r="A176" s="11" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" ht="192">
-      <c r="A175" s="11" t="s">
+      <c r="B176" s="15" t="s">
+        <v>456</v>
+      </c>
+      <c r="C176" s="15" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="192">
+      <c r="A177" s="11" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" ht="128">
-      <c r="A176" s="11" t="s">
+      <c r="B177" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="C177" s="15" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="112">
+      <c r="A178" s="11" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" ht="192">
-      <c r="A177" s="11" t="s">
+      <c r="B178" s="15" t="s">
+        <v>467</v>
+      </c>
+      <c r="C178" s="15" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="160">
+      <c r="A179" s="11" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" ht="112">
-      <c r="A178" s="11" t="s">
+      <c r="B179" s="15" t="s">
+        <v>460</v>
+      </c>
+      <c r="C179" s="15" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="176">
+      <c r="A180" s="11" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" ht="160">
-      <c r="A179" s="11" t="s">
+      <c r="B180" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="C180" s="15" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="128">
+      <c r="A181" s="11" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" ht="176">
-      <c r="A180" s="11" t="s">
+      <c r="B181" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="C181" s="15" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="192">
+      <c r="A182" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="B182" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="C182" s="15" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="96">
+      <c r="A183" s="11" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" ht="128">
-      <c r="A181" s="11" t="s">
+      <c r="B183" s="15" t="s">
+        <v>460</v>
+      </c>
+      <c r="C183" s="15" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="128">
+      <c r="A184" s="11" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" ht="192">
-      <c r="A182" s="11" t="s">
+      <c r="B184" s="15" t="s">
+        <v>460</v>
+      </c>
+      <c r="C184" s="15" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="176">
+      <c r="A185" s="11" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" ht="96">
-      <c r="A183" s="11" t="s">
+      <c r="B185" s="15" t="s">
+        <v>460</v>
+      </c>
+      <c r="C185" s="15" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="128">
+      <c r="A186" s="11" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" ht="128">
-      <c r="A184" s="11" t="s">
+      <c r="B186" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="C186" s="15" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="144">
+      <c r="A187" s="11" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" ht="176">
-      <c r="A185" s="11" t="s">
+      <c r="B187" s="15" t="s">
+        <v>456</v>
+      </c>
+      <c r="C187" s="15" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="144">
+      <c r="A188" s="11" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" ht="128">
-      <c r="A186" s="11" t="s">
+      <c r="B188" s="15" t="s">
+        <v>460</v>
+      </c>
+      <c r="C188" s="15" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="144">
+      <c r="A189" s="11" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" ht="144">
-      <c r="A187" s="11" t="s">
+      <c r="B189" s="15" t="s">
+        <v>458</v>
+      </c>
+      <c r="C189" s="15" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="144">
+      <c r="A190" s="11" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" ht="144">
-      <c r="A188" s="11" t="s">
+      <c r="B190" s="15" t="s">
+        <v>455</v>
+      </c>
+      <c r="C190" s="15" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="144">
+      <c r="A191" s="11" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" ht="144">
-      <c r="A189" s="11" t="s">
+      <c r="B191" s="15" t="s">
+        <v>458</v>
+      </c>
+      <c r="C191" s="15" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="144">
+      <c r="A192" s="11" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" ht="144">
-      <c r="A190" s="11" t="s">
+      <c r="B192" s="15" t="s">
+        <v>459</v>
+      </c>
+      <c r="C192" s="15" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="160">
+      <c r="A193" s="11" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" ht="144">
-      <c r="A191" s="11" t="s">
+      <c r="B193" s="15" t="s">
+        <v>458</v>
+      </c>
+      <c r="C193" s="15" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="224">
+      <c r="A194" s="11" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" ht="144">
-      <c r="A192" s="11" t="s">
+      <c r="B194" s="15" t="s">
+        <v>459</v>
+      </c>
+      <c r="C194" s="15" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="112">
+      <c r="A195" s="11" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" ht="160">
-      <c r="A193" s="11" t="s">
+      <c r="B195" s="15" t="s">
+        <v>458</v>
+      </c>
+      <c r="C195" s="15" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="192">
+      <c r="A196" s="11" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" ht="224">
-      <c r="A194" s="11" t="s">
+      <c r="B196" s="15" t="s">
+        <v>458</v>
+      </c>
+      <c r="C196" s="15" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="128">
+      <c r="A197" s="11" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" ht="112">
-      <c r="A195" s="11" t="s">
+      <c r="B197" s="15" t="s">
+        <v>458</v>
+      </c>
+      <c r="C197" s="15" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="144">
+      <c r="A198" s="11" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" ht="192">
-      <c r="A196" s="11" t="s">
+      <c r="B198" s="15" t="s">
+        <v>458</v>
+      </c>
+      <c r="C198" s="15" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="144">
+      <c r="A199" s="11" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" ht="128">
-      <c r="A197" s="11" t="s">
+      <c r="B199" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="C199" s="15" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="128">
+      <c r="A200" s="11" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" ht="144">
-      <c r="A198" s="11" t="s">
+      <c r="B200" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="C200" s="15" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="128">
+      <c r="A201" s="11" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" ht="144">
-      <c r="A199" s="11" t="s">
+      <c r="B201" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="C201" s="15" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="160">
+      <c r="A202" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="B202" s="15" t="s">
+        <v>460</v>
+      </c>
+      <c r="C202" s="15" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="128">
+      <c r="A203" s="11" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" ht="128">
-      <c r="A200" s="11" t="s">
+      <c r="B203" s="15" t="s">
+        <v>459</v>
+      </c>
+      <c r="C203" s="15" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="144">
+      <c r="A204" s="8" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" ht="128">
-      <c r="A201" s="11" t="s">
+      <c r="B204" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="C204" s="15" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" ht="144">
+      <c r="A205" s="8" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="202" spans="1:1" ht="160">
-      <c r="A202" s="11" t="s">
+      <c r="B205" s="15" t="s">
+        <v>459</v>
+      </c>
+      <c r="C205" s="15" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="160">
+      <c r="A206" s="8" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="203" spans="1:1" ht="128">
-      <c r="A203" s="11" t="s">
+      <c r="B206" s="15" t="s">
+        <v>458</v>
+      </c>
+      <c r="C206" s="15" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" ht="128">
+      <c r="A207" s="8" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="204" spans="1:1" ht="144">
-      <c r="A204" s="8" t="s">
+      <c r="B207" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="C207" s="15" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="192">
+      <c r="A208" s="8" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="205" spans="1:1" ht="144">
-      <c r="A205" s="8" t="s">
+      <c r="B208" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="C208" s="15" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="128">
+      <c r="A209" s="8" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="206" spans="1:1" ht="160">
-      <c r="A206" s="8" t="s">
+      <c r="B209" s="15" t="s">
+        <v>455</v>
+      </c>
+      <c r="C209" s="15" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" ht="160">
+      <c r="A210" s="8" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="207" spans="1:1" ht="128">
-      <c r="A207" s="8" t="s">
+      <c r="B210" s="15" t="s">
+        <v>457</v>
+      </c>
+      <c r="C210" s="15" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" ht="176">
+      <c r="A211" s="8" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="208" spans="1:1" ht="192">
-      <c r="A208" s="8" t="s">
+      <c r="B211" s="15" t="s">
+        <v>458</v>
+      </c>
+      <c r="C211" s="15" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="96">
+      <c r="A212" s="8" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" ht="128">
-      <c r="A209" s="8" t="s">
+      <c r="B212" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="C212" s="15" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="128">
+      <c r="A213" s="13" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" ht="160">
-      <c r="A210" s="8" t="s">
+      <c r="B213" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="C213" s="15" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="112">
+      <c r="A214" s="8" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" ht="176">
-      <c r="A211" s="8" t="s">
+      <c r="B214" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="C214" s="15" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" ht="80">
+      <c r="A215" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="B215" s="15" t="s">
+        <v>455</v>
+      </c>
+      <c r="C215" s="15" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" ht="96">
+      <c r="A216" s="8" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" ht="96">
-      <c r="A212" s="8" t="s">
+      <c r="B216" s="15" t="s">
+        <v>458</v>
+      </c>
+      <c r="C216" s="15" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" ht="96">
+      <c r="A217" s="4" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" ht="128">
-      <c r="A213" s="13" t="s">
+      <c r="C217" s="15" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" ht="128">
+      <c r="A218" s="13" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" ht="112">
-      <c r="A214" s="8" t="s">
+      <c r="B218" s="15" t="s">
+        <v>457</v>
+      </c>
+      <c r="C218" s="15" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="144">
+      <c r="A219" s="5" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" ht="80">
-      <c r="A215" s="8" t="s">
+      <c r="B219" s="15" t="s">
+        <v>457</v>
+      </c>
+      <c r="C219" s="15" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" ht="144">
+      <c r="A220" s="8" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="216" spans="1:1" ht="96">
-      <c r="A216" s="8" t="s">
+      <c r="B220" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="C220" s="15" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" ht="96">
+      <c r="A221" s="5" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" ht="96">
-      <c r="A217" s="4" t="s">
+      <c r="B221" s="15" t="s">
+        <v>455</v>
+      </c>
+      <c r="C221" s="15" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" ht="80">
+      <c r="A222" s="8" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="218" spans="1:1" ht="128">
-      <c r="A218" s="13" t="s">
+      <c r="B222" s="15" t="s">
+        <v>459</v>
+      </c>
+      <c r="C222" s="15" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" ht="112">
+      <c r="A223" s="4" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="219" spans="1:1" ht="144">
-      <c r="A219" s="5" t="s">
+      <c r="B223" s="15" t="s">
+        <v>455</v>
+      </c>
+      <c r="C223" s="15" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" ht="128">
+      <c r="A224" s="4" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" ht="144">
-      <c r="A220" s="8" t="s">
+      <c r="B224" s="15" t="s">
+        <v>458</v>
+      </c>
+      <c r="C224" s="15" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" ht="96">
+      <c r="A225" s="4" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="221" spans="1:1" ht="96">
-      <c r="A221" s="5" t="s">
+      <c r="B225" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="C225" s="15" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" ht="112">
+      <c r="A226" s="4" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="222" spans="1:1" ht="80">
-      <c r="A222" s="8" t="s">
+      <c r="B226" s="15" t="s">
+        <v>456</v>
+      </c>
+      <c r="C226" s="15" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" ht="192">
+      <c r="A227" s="4" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" ht="112">
-      <c r="A223" s="4" t="s">
+      <c r="B227" s="15" t="s">
+        <v>455</v>
+      </c>
+      <c r="C227" s="15" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" ht="144">
+      <c r="A228" s="4" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="224" spans="1:1" ht="128">
-      <c r="A224" s="4" t="s">
+      <c r="B228" s="15" t="s">
+        <v>455</v>
+      </c>
+      <c r="C228" s="15" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" ht="112">
+      <c r="A229" s="4" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="225" spans="1:1" ht="96">
-      <c r="A225" s="4" t="s">
+      <c r="B229" s="15" t="s">
+        <v>460</v>
+      </c>
+      <c r="C229" s="15" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" ht="128">
+      <c r="A230" s="4" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="226" spans="1:1" ht="112">
-      <c r="A226" s="4" t="s">
+      <c r="B230" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="C230" s="15" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" ht="144">
+      <c r="A231" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="B231" s="15" t="s">
+        <v>453</v>
+      </c>
+      <c r="C231" s="15" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" ht="176">
+      <c r="A232" s="4" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="227" spans="1:1" ht="192">
-      <c r="A227" s="4" t="s">
+      <c r="B232" s="15" t="s">
+        <v>455</v>
+      </c>
+      <c r="C232" s="15" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" ht="144">
+      <c r="A233" s="4" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="228" spans="1:1" ht="144">
-      <c r="A228" s="4" t="s">
+      <c r="B233" s="15" t="s">
+        <v>458</v>
+      </c>
+      <c r="C233" s="15" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" ht="144">
+      <c r="A234" s="4" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="229" spans="1:1" ht="112">
-      <c r="A229" s="4" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1" ht="128">
-      <c r="A230" s="4" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1" ht="144">
-      <c r="A231" s="4" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1" ht="176">
-      <c r="A232" s="4" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1" ht="160">
-      <c r="A233" s="4" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1" ht="144">
-      <c r="A234" s="4" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1" ht="192">
+      <c r="B234" s="15" t="s">
+        <v>455</v>
+      </c>
+      <c r="C234" s="15" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" ht="192">
       <c r="A235" s="4" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="236" spans="1:1" ht="224">
+      <c r="B235" s="15" t="s">
+        <v>459</v>
+      </c>
+      <c r="C235" s="15" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" ht="224">
       <c r="A236" s="4" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="237" spans="1:1" ht="240">
+      <c r="B236" s="15" t="s">
+        <v>455</v>
+      </c>
+      <c r="C236" s="15" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" ht="240">
       <c r="A237" s="4" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="238" spans="1:1" ht="176">
+      <c r="B237" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="C237" s="15" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" ht="176">
       <c r="A238" s="4" t="s">
         <v>172</v>
+      </c>
+      <c r="B238" s="15" t="s">
+        <v>457</v>
+      </c>
+      <c r="C238" s="15" t="s">
+        <v>467</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/migueljimenez/code/snippet-search-app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F365C6-EF51-7E45-AF16-6075D218AB86}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC5DA85-DCFD-F945-BAD8-9F247652637D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="1" xr2:uid="{1E5D2228-03B9-BF47-8C8C-3AA41A5E1D6F}"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="13860" xr2:uid="{1E5D2228-03B9-BF47-8C8C-3AA41A5E1D6F}"/>
   </bookViews>
   <sheets>
     <sheet name="strengths" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="485">
   <si>
     <t>Snippet</t>
   </si>
@@ -1421,9 +1421,6 @@
   </si>
   <si>
     <t>Decision Making</t>
-  </si>
-  <si>
-    <t>achieving Results</t>
   </si>
   <si>
     <t>Tiffany was effective at influencing. In several exercises, she looked for alternative ways of using arguments and could frame information in a way that was compelling to his counterparts. Consequently, she could win others over and ensure buy-in.</t>
@@ -1584,7 +1581,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1633,6 +1630,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1950,8 +1950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A919D8BC-4DAD-6C40-85B3-AE1CBC1CAA41}">
   <dimension ref="A1:E230"/>
   <sheetViews>
-    <sheetView topLeftCell="A1048527" workbookViewId="0">
-      <selection activeCell="C1048576" sqref="C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A212" workbookViewId="0">
+      <selection activeCell="A211" sqref="A211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1969,7 +1969,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1986,7 +1986,7 @@
         <v>452</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E2" s="14"/>
     </row>
@@ -1998,7 +1998,7 @@
         <v>453</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="144">
@@ -2009,7 +2009,7 @@
         <v>454</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="80">
@@ -2020,7 +2020,7 @@
         <v>454</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="112">
@@ -2031,7 +2031,7 @@
         <v>452</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="128">
@@ -2042,7 +2042,7 @@
         <v>454</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="96">
@@ -2053,7 +2053,7 @@
         <v>452</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="96">
@@ -2064,7 +2064,7 @@
         <v>455</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="96">
@@ -2075,7 +2075,7 @@
         <v>456</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="64">
@@ -2086,7 +2086,7 @@
         <v>452</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="96">
@@ -2097,7 +2097,7 @@
         <v>454</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="112">
@@ -2108,7 +2108,7 @@
         <v>454</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="80">
@@ -2119,7 +2119,7 @@
         <v>456</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="96">
@@ -2130,7 +2130,7 @@
         <v>455</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="128">
@@ -2141,7 +2141,7 @@
         <v>455</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="128">
@@ -2152,7 +2152,7 @@
         <v>454</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="80">
@@ -2163,7 +2163,7 @@
         <v>452</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="144">
@@ -2174,7 +2174,7 @@
         <v>455</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="128">
@@ -2185,7 +2185,7 @@
         <v>456</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="128">
@@ -2196,7 +2196,7 @@
         <v>454</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="112">
@@ -2207,7 +2207,7 @@
         <v>456</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="153">
@@ -2218,7 +2218,7 @@
         <v>452</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="128">
@@ -2229,7 +2229,7 @@
         <v>455</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="144">
@@ -2240,7 +2240,7 @@
         <v>454</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="96">
@@ -2251,7 +2251,7 @@
         <v>456</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="96">
@@ -2262,7 +2262,7 @@
         <v>456</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="160">
@@ -2273,18 +2273,18 @@
         <v>455</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="128">
       <c r="A29" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B29" s="15" t="s">
         <v>452</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="128">
@@ -2295,7 +2295,7 @@
         <v>454</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="112">
@@ -2306,7 +2306,7 @@
         <v>457</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="176">
@@ -2317,7 +2317,7 @@
         <v>456</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="112">
@@ -2328,7 +2328,7 @@
         <v>455</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="112">
@@ -2339,7 +2339,7 @@
         <v>452</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="128">
@@ -2350,7 +2350,7 @@
         <v>452</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="176">
@@ -2361,7 +2361,7 @@
         <v>458</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="128">
@@ -2372,7 +2372,7 @@
         <v>454</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="112">
@@ -2383,7 +2383,7 @@
         <v>455</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="96">
@@ -2394,7 +2394,7 @@
         <v>455</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="96">
@@ -2405,7 +2405,7 @@
         <v>454</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="96">
@@ -2416,7 +2416,7 @@
         <v>457</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="128">
@@ -2427,7 +2427,7 @@
         <v>452</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="105">
@@ -2438,7 +2438,7 @@
         <v>454</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="105">
@@ -2449,7 +2449,7 @@
         <v>456</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="60">
@@ -2460,7 +2460,7 @@
         <v>454</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="75">
@@ -2471,7 +2471,7 @@
         <v>452</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="112">
@@ -2482,7 +2482,7 @@
         <v>458</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="96">
@@ -2493,7 +2493,7 @@
         <v>455</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="80">
@@ -2504,7 +2504,7 @@
         <v>454</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="96">
@@ -2515,7 +2515,7 @@
         <v>454</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="96">
@@ -2526,7 +2526,7 @@
         <v>456</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="80">
@@ -2537,7 +2537,7 @@
         <v>455</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="112">
@@ -2548,7 +2548,7 @@
         <v>452</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="64">
@@ -2559,7 +2559,7 @@
         <v>454</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="48">
@@ -2570,7 +2570,7 @@
         <v>454</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="112">
@@ -2581,7 +2581,7 @@
         <v>459</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="80">
@@ -2592,7 +2592,7 @@
         <v>455</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="80">
@@ -2603,7 +2603,7 @@
         <v>455</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="48">
@@ -2614,7 +2614,7 @@
         <v>452</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="80">
@@ -2625,7 +2625,7 @@
         <v>456</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="64">
@@ -2636,7 +2636,7 @@
         <v>456</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="48">
@@ -2647,7 +2647,7 @@
         <v>456</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="64">
@@ -2658,7 +2658,7 @@
         <v>458</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="64">
@@ -2669,7 +2669,7 @@
         <v>457</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="64">
@@ -2680,7 +2680,7 @@
         <v>452</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="64">
@@ -2691,7 +2691,7 @@
         <v>455</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="80">
@@ -2702,7 +2702,7 @@
         <v>456</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="64">
@@ -2713,7 +2713,7 @@
         <v>456</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="96">
@@ -2724,7 +2724,7 @@
         <v>459</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="64">
@@ -2735,7 +2735,7 @@
         <v>452</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="80">
@@ -2746,7 +2746,7 @@
         <v>452</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="64">
@@ -2757,7 +2757,7 @@
         <v>456</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="80">
@@ -2768,7 +2768,7 @@
         <v>454</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="80">
@@ -2779,7 +2779,7 @@
         <v>453</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="64">
@@ -2790,7 +2790,7 @@
         <v>456</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="64">
@@ -2801,7 +2801,7 @@
         <v>458</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="80">
@@ -2812,7 +2812,7 @@
         <v>456</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="96">
@@ -2823,7 +2823,7 @@
         <v>455</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="96">
@@ -2834,7 +2834,7 @@
         <v>460</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="96">
@@ -2845,7 +2845,7 @@
         <v>454</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="80">
@@ -2856,7 +2856,7 @@
         <v>456</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="96">
@@ -2867,7 +2867,7 @@
         <v>455</v>
       </c>
       <c r="C82" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="96">
@@ -2878,7 +2878,7 @@
         <v>456</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="128">
@@ -2889,18 +2889,18 @@
         <v>455</v>
       </c>
       <c r="C84" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="112">
       <c r="A85" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B85" s="15" t="s">
         <v>460</v>
       </c>
       <c r="C85" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="128">
@@ -2911,7 +2911,7 @@
         <v>452</v>
       </c>
       <c r="C86" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="96">
@@ -2922,7 +2922,7 @@
         <v>452</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="96">
@@ -2933,7 +2933,7 @@
         <v>456</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="192">
@@ -2944,7 +2944,7 @@
         <v>454</v>
       </c>
       <c r="C89" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="128">
@@ -2955,7 +2955,7 @@
         <v>453</v>
       </c>
       <c r="C90" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="112">
@@ -2966,7 +2966,7 @@
         <v>460</v>
       </c>
       <c r="C91" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="144">
@@ -2977,7 +2977,7 @@
         <v>455</v>
       </c>
       <c r="C92" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="128">
@@ -2988,7 +2988,7 @@
         <v>458</v>
       </c>
       <c r="C93" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="192">
@@ -2999,7 +2999,7 @@
         <v>452</v>
       </c>
       <c r="C94" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="128">
@@ -3010,7 +3010,7 @@
         <v>456</v>
       </c>
       <c r="C95" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="128">
@@ -3021,7 +3021,7 @@
         <v>459</v>
       </c>
       <c r="C96" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="144">
@@ -3032,7 +3032,7 @@
         <v>456</v>
       </c>
       <c r="C97" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="144">
@@ -3043,7 +3043,7 @@
         <v>454</v>
       </c>
       <c r="C98" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="144">
@@ -3054,7 +3054,7 @@
         <v>455</v>
       </c>
       <c r="C99" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="192">
@@ -3065,7 +3065,7 @@
         <v>455</v>
       </c>
       <c r="C100" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="96">
@@ -3076,7 +3076,7 @@
         <v>456</v>
       </c>
       <c r="C101" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="144">
@@ -3087,7 +3087,7 @@
         <v>452</v>
       </c>
       <c r="C102" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="128">
@@ -3098,7 +3098,7 @@
         <v>458</v>
       </c>
       <c r="C103" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="144">
@@ -3109,7 +3109,7 @@
         <v>454</v>
       </c>
       <c r="C104" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="128">
@@ -3120,7 +3120,7 @@
         <v>458</v>
       </c>
       <c r="C105" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="128">
@@ -3131,7 +3131,7 @@
         <v>459</v>
       </c>
       <c r="C106" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="128">
@@ -3142,7 +3142,7 @@
         <v>456</v>
       </c>
       <c r="C107" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="90">
@@ -3153,7 +3153,7 @@
         <v>456</v>
       </c>
       <c r="C108" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="75">
@@ -3164,7 +3164,7 @@
         <v>458</v>
       </c>
       <c r="C109" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="75">
@@ -3175,7 +3175,7 @@
         <v>456</v>
       </c>
       <c r="C110" s="15" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="75">
@@ -3186,7 +3186,7 @@
         <v>457</v>
       </c>
       <c r="C111" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="105">
@@ -3197,7 +3197,7 @@
         <v>457</v>
       </c>
       <c r="C112" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="90">
@@ -3208,7 +3208,7 @@
         <v>457</v>
       </c>
       <c r="C113" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="105">
@@ -3219,7 +3219,7 @@
         <v>456</v>
       </c>
       <c r="C114" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="90">
@@ -3230,7 +3230,7 @@
         <v>457</v>
       </c>
       <c r="C115" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="90">
@@ -3241,7 +3241,7 @@
         <v>458</v>
       </c>
       <c r="C116" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="75">
@@ -3252,7 +3252,7 @@
         <v>459</v>
       </c>
       <c r="C117" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="75">
@@ -3263,7 +3263,7 @@
         <v>459</v>
       </c>
       <c r="C118" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="75">
@@ -3274,7 +3274,7 @@
         <v>459</v>
       </c>
       <c r="C119" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="90">
@@ -3285,7 +3285,7 @@
         <v>455</v>
       </c>
       <c r="C120" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="112">
@@ -3296,7 +3296,7 @@
         <v>455</v>
       </c>
       <c r="C121" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="144">
@@ -3307,7 +3307,7 @@
         <v>455</v>
       </c>
       <c r="C122" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="135">
@@ -3318,7 +3318,7 @@
         <v>454</v>
       </c>
       <c r="C123" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="112">
@@ -3329,7 +3329,7 @@
         <v>454</v>
       </c>
       <c r="C124" s="15" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="96">
@@ -3340,7 +3340,7 @@
         <v>452</v>
       </c>
       <c r="C125" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="90">
@@ -3351,7 +3351,7 @@
         <v>457</v>
       </c>
       <c r="C126" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="96">
@@ -3362,7 +3362,7 @@
         <v>457</v>
       </c>
       <c r="C127" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="96">
@@ -3373,7 +3373,7 @@
         <v>457</v>
       </c>
       <c r="C128" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="105">
@@ -3384,7 +3384,7 @@
         <v>452</v>
       </c>
       <c r="C129" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="96">
@@ -3395,7 +3395,7 @@
         <v>452</v>
       </c>
       <c r="C130" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="96">
@@ -3406,7 +3406,7 @@
         <v>452</v>
       </c>
       <c r="C131" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="105">
@@ -3417,7 +3417,7 @@
         <v>453</v>
       </c>
       <c r="C132" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="64">
@@ -3428,7 +3428,7 @@
         <v>455</v>
       </c>
       <c r="C133" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="80">
@@ -3439,7 +3439,7 @@
         <v>453</v>
       </c>
       <c r="C134" s="15" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="75">
@@ -3450,7 +3450,7 @@
         <v>459</v>
       </c>
       <c r="C135" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="48">
@@ -3461,7 +3461,7 @@
         <v>459</v>
       </c>
       <c r="C136" s="15" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="96">
@@ -3472,7 +3472,7 @@
         <v>459</v>
       </c>
       <c r="C137" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="75">
@@ -3483,7 +3483,7 @@
         <v>457</v>
       </c>
       <c r="C138" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="80">
@@ -3494,7 +3494,7 @@
         <v>457</v>
       </c>
       <c r="C139" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="80">
@@ -3505,7 +3505,7 @@
         <v>457</v>
       </c>
       <c r="C140" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="90">
@@ -3516,7 +3516,7 @@
         <v>454</v>
       </c>
       <c r="C141" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="64">
@@ -3527,7 +3527,7 @@
         <v>460</v>
       </c>
       <c r="C142" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="112">
@@ -3538,7 +3538,7 @@
         <v>460</v>
       </c>
       <c r="C143" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="105">
@@ -3549,7 +3549,7 @@
         <v>456</v>
       </c>
       <c r="C144" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="80">
@@ -3560,7 +3560,7 @@
         <v>456</v>
       </c>
       <c r="C145" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="80">
@@ -3571,7 +3571,7 @@
         <v>455</v>
       </c>
       <c r="C146" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="90">
@@ -3582,7 +3582,7 @@
         <v>456</v>
       </c>
       <c r="C147" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="80">
@@ -3593,7 +3593,7 @@
         <v>458</v>
       </c>
       <c r="C148" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="80">
@@ -3604,7 +3604,7 @@
         <v>456</v>
       </c>
       <c r="C149" s="15" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="90">
@@ -3615,7 +3615,7 @@
         <v>459</v>
       </c>
       <c r="C150" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="80">
@@ -3626,7 +3626,7 @@
         <v>459</v>
       </c>
       <c r="C151" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="80">
@@ -3637,7 +3637,7 @@
         <v>459</v>
       </c>
       <c r="C152" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="112">
@@ -3648,7 +3648,7 @@
         <v>460</v>
       </c>
       <c r="C153" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="96">
@@ -3659,7 +3659,7 @@
         <v>453</v>
       </c>
       <c r="C154" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="96">
@@ -3670,7 +3670,7 @@
         <v>459</v>
       </c>
       <c r="C155" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="96">
@@ -3681,7 +3681,7 @@
         <v>457</v>
       </c>
       <c r="C156" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="112">
@@ -3692,7 +3692,7 @@
         <v>456</v>
       </c>
       <c r="C157" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="144">
@@ -3703,7 +3703,7 @@
         <v>455</v>
       </c>
       <c r="C158" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="112">
@@ -3714,7 +3714,7 @@
         <v>455</v>
       </c>
       <c r="C159" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="80">
@@ -3725,7 +3725,7 @@
         <v>454</v>
       </c>
       <c r="C160" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="144">
@@ -3736,7 +3736,7 @@
         <v>454</v>
       </c>
       <c r="C161" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="160">
@@ -3747,7 +3747,7 @@
         <v>452</v>
       </c>
       <c r="C162" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="112">
@@ -3758,7 +3758,7 @@
         <v>452</v>
       </c>
       <c r="C163" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="128">
@@ -3769,7 +3769,7 @@
         <v>453</v>
       </c>
       <c r="C164" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="128">
@@ -3780,7 +3780,7 @@
         <v>456</v>
       </c>
       <c r="C165" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="112">
@@ -3791,7 +3791,7 @@
         <v>456</v>
       </c>
       <c r="C166" s="15" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="112">
@@ -3802,18 +3802,18 @@
         <v>455</v>
       </c>
       <c r="C167" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="96">
       <c r="A168" s="11" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B168" s="15" t="s">
         <v>455</v>
       </c>
       <c r="C168" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="128">
@@ -3824,7 +3824,7 @@
         <v>458</v>
       </c>
       <c r="C169" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="112">
@@ -3835,7 +3835,7 @@
         <v>459</v>
       </c>
       <c r="C170" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="96">
@@ -3846,7 +3846,7 @@
         <v>459</v>
       </c>
       <c r="C171" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="96">
@@ -3857,7 +3857,7 @@
         <v>459</v>
       </c>
       <c r="C172" s="15" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="112">
@@ -3868,7 +3868,7 @@
         <v>459</v>
       </c>
       <c r="C173" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="112">
@@ -3879,7 +3879,7 @@
         <v>460</v>
       </c>
       <c r="C174" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="64">
@@ -3890,7 +3890,7 @@
         <v>460</v>
       </c>
       <c r="C175" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="96">
@@ -3901,7 +3901,7 @@
         <v>460</v>
       </c>
       <c r="C176" s="15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="144">
@@ -3912,7 +3912,7 @@
         <v>456</v>
       </c>
       <c r="C177" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="160">
@@ -3923,7 +3923,7 @@
         <v>456</v>
       </c>
       <c r="C178" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="128">
@@ -3934,7 +3934,7 @@
         <v>456</v>
       </c>
       <c r="C179" s="15" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="128">
@@ -3945,7 +3945,7 @@
         <v>456</v>
       </c>
       <c r="C180" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="144">
@@ -3956,7 +3956,7 @@
         <v>455</v>
       </c>
       <c r="C181" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="128">
@@ -3967,7 +3967,7 @@
         <v>456</v>
       </c>
       <c r="C182" s="15" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="96">
@@ -3978,7 +3978,7 @@
         <v>454</v>
       </c>
       <c r="C183" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="80">
@@ -3989,18 +3989,18 @@
         <v>454</v>
       </c>
       <c r="C184" s="15" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="96">
       <c r="A185" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B185" s="15" t="s">
         <v>459</v>
       </c>
       <c r="C185" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="80">
@@ -4011,7 +4011,7 @@
         <v>452</v>
       </c>
       <c r="C186" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="96">
@@ -4022,7 +4022,7 @@
         <v>452</v>
       </c>
       <c r="C187" s="15" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="96">
@@ -4033,7 +4033,7 @@
         <v>452</v>
       </c>
       <c r="C188" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="96">
@@ -4044,7 +4044,7 @@
         <v>455</v>
       </c>
       <c r="C189" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="112">
@@ -4055,7 +4055,7 @@
         <v>459</v>
       </c>
       <c r="C190" s="15" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="128">
@@ -4066,7 +4066,7 @@
         <v>455</v>
       </c>
       <c r="C191" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="112">
@@ -4077,7 +4077,7 @@
         <v>459</v>
       </c>
       <c r="C192" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="80">
@@ -4088,7 +4088,7 @@
         <v>459</v>
       </c>
       <c r="C193" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="112">
@@ -4099,7 +4099,7 @@
         <v>459</v>
       </c>
       <c r="C194" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="112">
@@ -4110,7 +4110,7 @@
         <v>456</v>
       </c>
       <c r="C195" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="64">
@@ -4121,7 +4121,7 @@
         <v>456</v>
       </c>
       <c r="C196" s="15" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="112">
@@ -4132,7 +4132,7 @@
         <v>455</v>
       </c>
       <c r="C197" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="80">
@@ -4143,7 +4143,7 @@
         <v>452</v>
       </c>
       <c r="C198" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="64">
@@ -4154,7 +4154,7 @@
         <v>455</v>
       </c>
       <c r="C199" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="96">
@@ -4165,7 +4165,7 @@
         <v>452</v>
       </c>
       <c r="C200" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="96">
@@ -4176,7 +4176,7 @@
         <v>455</v>
       </c>
       <c r="C201" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="112">
@@ -4187,7 +4187,7 @@
         <v>454</v>
       </c>
       <c r="C202" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="112">
@@ -4198,7 +4198,7 @@
         <v>453</v>
       </c>
       <c r="C203" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="80">
@@ -4209,18 +4209,18 @@
         <v>457</v>
       </c>
       <c r="C204" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="128">
       <c r="A205" s="8" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B205" s="15" t="s">
         <v>459</v>
       </c>
       <c r="C205" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="96">
@@ -4231,7 +4231,7 @@
         <v>453</v>
       </c>
       <c r="C206" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="80">
@@ -4242,7 +4242,7 @@
         <v>452</v>
       </c>
       <c r="C207" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="96">
@@ -4253,7 +4253,7 @@
         <v>460</v>
       </c>
       <c r="C208" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="96">
@@ -4264,7 +4264,7 @@
         <v>454</v>
       </c>
       <c r="C209" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="80">
@@ -4275,18 +4275,18 @@
         <v>455</v>
       </c>
       <c r="C210" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="102">
-      <c r="A211" s="2" t="s">
+      <c r="A211" s="17" t="s">
         <v>216</v>
       </c>
       <c r="B211" s="15" t="s">
         <v>454</v>
       </c>
       <c r="C211" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="80">
@@ -4297,7 +4297,7 @@
         <v>455</v>
       </c>
       <c r="C212" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="64">
@@ -4308,7 +4308,7 @@
         <v>452</v>
       </c>
       <c r="C213" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="48">
@@ -4319,7 +4319,7 @@
         <v>452</v>
       </c>
       <c r="C214" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="64">
@@ -4330,7 +4330,7 @@
         <v>452</v>
       </c>
       <c r="C215" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="80">
@@ -4341,7 +4341,7 @@
         <v>455</v>
       </c>
       <c r="C216" s="15" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="48">
@@ -4352,7 +4352,7 @@
         <v>458</v>
       </c>
       <c r="C217" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="80">
@@ -4363,7 +4363,7 @@
         <v>456</v>
       </c>
       <c r="C218" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="96">
@@ -4374,7 +4374,7 @@
         <v>452</v>
       </c>
       <c r="C219" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="48">
@@ -4385,7 +4385,7 @@
         <v>454</v>
       </c>
       <c r="C220" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="80">
@@ -4396,7 +4396,7 @@
         <v>454</v>
       </c>
       <c r="C221" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="80">
@@ -4407,7 +4407,7 @@
         <v>455</v>
       </c>
       <c r="C222" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="64">
@@ -4418,18 +4418,18 @@
         <v>458</v>
       </c>
       <c r="C223" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="64">
       <c r="A224" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B224" s="15" t="s">
         <v>452</v>
       </c>
       <c r="C224" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="80">
@@ -4440,7 +4440,7 @@
         <v>454</v>
       </c>
       <c r="C225" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="80">
@@ -4451,18 +4451,18 @@
         <v>455</v>
       </c>
       <c r="C226" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="64">
       <c r="A227" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B227" s="15" t="s">
         <v>452</v>
       </c>
       <c r="C227" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="80">
@@ -4473,7 +4473,7 @@
         <v>453</v>
       </c>
       <c r="C228" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="96">
@@ -4484,7 +4484,7 @@
         <v>460</v>
       </c>
       <c r="C229" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="48">
@@ -4495,7 +4495,7 @@
         <v>455</v>
       </c>
       <c r="C230" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
   </sheetData>
@@ -4507,8 +4507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F060731-35FE-2848-B488-2657B95A6D77}">
   <dimension ref="A1:E238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A237" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B242" sqref="B242"/>
+    <sheetView topLeftCell="A238" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4526,7 +4526,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -4543,7 +4543,7 @@
         <v>455</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="144">
@@ -4554,7 +4554,7 @@
         <v>457</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="160">
@@ -4565,7 +4565,7 @@
         <v>454</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="96">
@@ -4576,7 +4576,7 @@
         <v>458</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="128">
@@ -4587,7 +4587,7 @@
         <v>455</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="112">
@@ -4598,7 +4598,7 @@
         <v>455</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="128">
@@ -4609,7 +4609,7 @@
         <v>454</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="160">
@@ -4620,7 +4620,7 @@
         <v>455</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="208">
@@ -4631,7 +4631,7 @@
         <v>452</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="128">
@@ -4642,7 +4642,7 @@
         <v>458</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="160">
@@ -4653,7 +4653,7 @@
         <v>460</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="144">
@@ -4664,7 +4664,7 @@
         <v>455</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="160">
@@ -4675,7 +4675,7 @@
         <v>452</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="144">
@@ -4686,7 +4686,7 @@
         <v>452</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="128">
@@ -4697,7 +4697,7 @@
         <v>454</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="192">
@@ -4708,7 +4708,7 @@
         <v>457</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="240">
@@ -4719,7 +4719,7 @@
         <v>459</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="144">
@@ -4730,7 +4730,7 @@
         <v>455</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="176">
@@ -4741,7 +4741,7 @@
         <v>455</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="304">
@@ -4752,7 +4752,7 @@
         <v>455</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="192">
@@ -4763,7 +4763,7 @@
         <v>455</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="160">
@@ -4774,7 +4774,7 @@
         <v>458</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="224">
@@ -4785,7 +4785,7 @@
         <v>454</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="160">
@@ -4796,7 +4796,7 @@
         <v>458</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="176">
@@ -4807,7 +4807,7 @@
         <v>457</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="144">
@@ -4818,7 +4818,7 @@
         <v>458</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="320">
@@ -4829,7 +4829,7 @@
         <v>455</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="192">
@@ -4840,7 +4840,7 @@
         <v>458</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="176">
@@ -4851,7 +4851,7 @@
         <v>455</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="176">
@@ -4862,7 +4862,7 @@
         <v>459</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="192">
@@ -4873,7 +4873,7 @@
         <v>452</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="208">
@@ -4884,7 +4884,7 @@
         <v>454</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="176">
@@ -4895,7 +4895,7 @@
         <v>458</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="192">
@@ -4906,7 +4906,7 @@
         <v>458</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="176">
@@ -4917,7 +4917,7 @@
         <v>458</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="192">
@@ -4928,7 +4928,7 @@
         <v>454</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="272">
@@ -4939,18 +4939,18 @@
         <v>452</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="128">
       <c r="A39" s="6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B39" s="15" t="s">
         <v>454</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="144">
@@ -4961,7 +4961,7 @@
         <v>456</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="128">
@@ -4972,7 +4972,7 @@
         <v>452</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="160">
@@ -4983,7 +4983,7 @@
         <v>455</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="144">
@@ -4994,7 +4994,7 @@
         <v>454</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="96">
@@ -5005,7 +5005,7 @@
         <v>453</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="128">
@@ -5016,7 +5016,7 @@
         <v>452</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="96">
@@ -5027,7 +5027,7 @@
         <v>457</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="96">
@@ -5038,7 +5038,7 @@
         <v>452</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="80">
@@ -5049,7 +5049,7 @@
         <v>458</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="144">
@@ -5060,7 +5060,7 @@
         <v>456</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="144">
@@ -5071,7 +5071,7 @@
         <v>458</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="128">
@@ -5082,7 +5082,7 @@
         <v>456</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="144">
@@ -5093,7 +5093,7 @@
         <v>455</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="112">
@@ -5104,7 +5104,7 @@
         <v>460</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="128">
@@ -5115,7 +5115,7 @@
         <v>458</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="112">
@@ -5126,7 +5126,7 @@
         <v>457</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="144">
@@ -5137,7 +5137,7 @@
         <v>452</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="128">
@@ -5148,7 +5148,7 @@
         <v>458</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="404">
@@ -5159,7 +5159,7 @@
         <v>456</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="96">
@@ -5170,7 +5170,7 @@
         <v>452</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="160">
@@ -5181,7 +5181,7 @@
         <v>457</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="128">
@@ -5192,7 +5192,7 @@
         <v>455</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="160">
@@ -5203,7 +5203,7 @@
         <v>452</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="96">
@@ -5214,7 +5214,7 @@
         <v>456</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="96">
@@ -5225,7 +5225,7 @@
         <v>456</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="112">
@@ -5236,7 +5236,7 @@
         <v>455</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="144">
@@ -5247,7 +5247,7 @@
         <v>458</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="160">
@@ -5258,7 +5258,7 @@
         <v>455</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="192">
@@ -5269,7 +5269,7 @@
         <v>460</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="112">
@@ -5280,7 +5280,7 @@
         <v>458</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="144">
@@ -5291,7 +5291,7 @@
         <v>456</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="112">
@@ -5302,7 +5302,7 @@
         <v>454</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="112">
@@ -5313,7 +5313,7 @@
         <v>454</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="176">
@@ -5324,7 +5324,7 @@
         <v>455</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="112">
@@ -5335,7 +5335,7 @@
         <v>456</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="128">
@@ -5346,7 +5346,7 @@
         <v>458</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="144">
@@ -5357,7 +5357,7 @@
         <v>455</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="144">
@@ -5368,7 +5368,7 @@
         <v>456</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="112">
@@ -5379,7 +5379,7 @@
         <v>456</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="80">
@@ -5390,7 +5390,7 @@
         <v>458</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="160">
@@ -5401,7 +5401,7 @@
         <v>459</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="112">
@@ -5412,7 +5412,7 @@
         <v>452</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="96">
@@ -5423,7 +5423,7 @@
         <v>455</v>
       </c>
       <c r="C82" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="160">
@@ -5434,7 +5434,7 @@
         <v>452</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="128">
@@ -5445,7 +5445,7 @@
         <v>458</v>
       </c>
       <c r="C84" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="128">
@@ -5456,7 +5456,7 @@
         <v>458</v>
       </c>
       <c r="C85" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="160">
@@ -5467,7 +5467,7 @@
         <v>460</v>
       </c>
       <c r="C86" s="15" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="112">
@@ -5478,7 +5478,7 @@
         <v>458</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="96">
@@ -5489,7 +5489,7 @@
         <v>455</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="112">
@@ -5500,7 +5500,7 @@
         <v>452</v>
       </c>
       <c r="C89" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="176">
@@ -5511,7 +5511,7 @@
         <v>452</v>
       </c>
       <c r="C90" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="112">
@@ -5522,7 +5522,7 @@
         <v>452</v>
       </c>
       <c r="C91" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="128">
@@ -5533,7 +5533,7 @@
         <v>458</v>
       </c>
       <c r="C92" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="112">
@@ -5544,7 +5544,7 @@
         <v>456</v>
       </c>
       <c r="C93" s="15" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="96">
@@ -5555,7 +5555,7 @@
         <v>460</v>
       </c>
       <c r="C94" s="15" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="160">
@@ -5566,7 +5566,7 @@
         <v>454</v>
       </c>
       <c r="C95" s="15" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="96">
@@ -5577,7 +5577,7 @@
         <v>458</v>
       </c>
       <c r="C96" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="96">
@@ -5588,7 +5588,7 @@
         <v>459</v>
       </c>
       <c r="C97" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="144">
@@ -5599,7 +5599,7 @@
         <v>458</v>
       </c>
       <c r="C98" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="224">
@@ -5610,7 +5610,7 @@
         <v>456</v>
       </c>
       <c r="C99" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="176">
@@ -5621,7 +5621,7 @@
         <v>455</v>
       </c>
       <c r="C100" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="176">
@@ -5632,7 +5632,7 @@
         <v>457</v>
       </c>
       <c r="C101" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="224">
@@ -5643,7 +5643,7 @@
         <v>454</v>
       </c>
       <c r="C102" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="192">
@@ -5654,7 +5654,7 @@
         <v>455</v>
       </c>
       <c r="C103" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="192">
@@ -5665,7 +5665,7 @@
         <v>457</v>
       </c>
       <c r="C104" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="128">
@@ -5676,7 +5676,7 @@
         <v>458</v>
       </c>
       <c r="C105" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="160">
@@ -5687,7 +5687,7 @@
         <v>456</v>
       </c>
       <c r="C106" s="15" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="144">
@@ -5698,7 +5698,7 @@
         <v>455</v>
       </c>
       <c r="C107" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="208">
@@ -5709,7 +5709,7 @@
         <v>452</v>
       </c>
       <c r="C108" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="160">
@@ -5720,7 +5720,7 @@
         <v>460</v>
       </c>
       <c r="C109" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="128">
@@ -5731,7 +5731,7 @@
         <v>453</v>
       </c>
       <c r="C110" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="208">
@@ -5742,7 +5742,7 @@
         <v>456</v>
       </c>
       <c r="C111" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="304">
@@ -5753,7 +5753,7 @@
         <v>455</v>
       </c>
       <c r="C112" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="224">
@@ -5764,7 +5764,7 @@
         <v>456</v>
       </c>
       <c r="C113" s="15" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="176">
@@ -5775,18 +5775,18 @@
         <v>458</v>
       </c>
       <c r="C114" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="160">
       <c r="A115" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B115" s="15" t="s">
         <v>457</v>
       </c>
       <c r="C115" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="240">
@@ -5797,7 +5797,7 @@
         <v>454</v>
       </c>
       <c r="C116" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="224">
@@ -5808,7 +5808,7 @@
         <v>457</v>
       </c>
       <c r="C117" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="144">
@@ -5819,7 +5819,7 @@
         <v>455</v>
       </c>
       <c r="C118" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="208">
@@ -5830,7 +5830,7 @@
         <v>455</v>
       </c>
       <c r="C119" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="240">
@@ -5841,7 +5841,7 @@
         <v>454</v>
       </c>
       <c r="C120" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="120">
@@ -5852,7 +5852,7 @@
         <v>452</v>
       </c>
       <c r="C121" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="120">
@@ -5860,10 +5860,10 @@
         <v>348</v>
       </c>
       <c r="B122" s="15" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="C122" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="120">
@@ -5874,7 +5874,7 @@
         <v>452</v>
       </c>
       <c r="C123" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="165">
@@ -5885,7 +5885,7 @@
         <v>455</v>
       </c>
       <c r="C124" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="90">
@@ -5896,7 +5896,7 @@
         <v>455</v>
       </c>
       <c r="C125" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="120">
@@ -5907,7 +5907,7 @@
         <v>455</v>
       </c>
       <c r="C126" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="135">
@@ -5918,7 +5918,7 @@
         <v>454</v>
       </c>
       <c r="C127" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="144">
@@ -5929,7 +5929,7 @@
         <v>454</v>
       </c>
       <c r="C128" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="128">
@@ -5940,7 +5940,7 @@
         <v>454</v>
       </c>
       <c r="C129" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="165">
@@ -5951,7 +5951,7 @@
         <v>458</v>
       </c>
       <c r="C130" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="144">
@@ -5962,7 +5962,7 @@
         <v>457</v>
       </c>
       <c r="C131" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="144">
@@ -5973,18 +5973,18 @@
         <v>456</v>
       </c>
       <c r="C132" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="180">
       <c r="A133" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B133" s="15" t="s">
         <v>452</v>
       </c>
       <c r="C133" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="144">
@@ -5995,7 +5995,7 @@
         <v>452</v>
       </c>
       <c r="C134" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="160">
@@ -6006,7 +6006,7 @@
         <v>452</v>
       </c>
       <c r="C135" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="165">
@@ -6017,7 +6017,7 @@
         <v>456</v>
       </c>
       <c r="C136" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="144">
@@ -6028,7 +6028,7 @@
         <v>458</v>
       </c>
       <c r="C137" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="112">
@@ -6039,7 +6039,7 @@
         <v>455</v>
       </c>
       <c r="C138" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="150">
@@ -6050,7 +6050,7 @@
         <v>455</v>
       </c>
       <c r="C139" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="144">
@@ -6061,7 +6061,7 @@
         <v>455</v>
       </c>
       <c r="C140" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="112">
@@ -6072,7 +6072,7 @@
         <v>455</v>
       </c>
       <c r="C141" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="120">
@@ -6083,7 +6083,7 @@
         <v>455</v>
       </c>
       <c r="C142" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="160">
@@ -6094,7 +6094,7 @@
         <v>456</v>
       </c>
       <c r="C143" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="128">
@@ -6105,7 +6105,7 @@
         <v>457</v>
       </c>
       <c r="C144" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="120">
@@ -6116,7 +6116,7 @@
         <v>456</v>
       </c>
       <c r="C145" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="112">
@@ -6127,7 +6127,7 @@
         <v>456</v>
       </c>
       <c r="C146" s="15" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="96">
@@ -6138,7 +6138,7 @@
         <v>455</v>
       </c>
       <c r="C147" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="135">
@@ -6149,7 +6149,7 @@
         <v>454</v>
       </c>
       <c r="C148" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="112">
@@ -6160,7 +6160,7 @@
         <v>454</v>
       </c>
       <c r="C149" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="112">
@@ -6171,7 +6171,7 @@
         <v>454</v>
       </c>
       <c r="C150" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="135">
@@ -6182,7 +6182,7 @@
         <v>452</v>
       </c>
       <c r="C151" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="112">
@@ -6193,7 +6193,7 @@
         <v>454</v>
       </c>
       <c r="C152" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="144">
@@ -6204,7 +6204,7 @@
         <v>456</v>
       </c>
       <c r="C153" s="15" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="135">
@@ -6215,7 +6215,7 @@
         <v>454</v>
       </c>
       <c r="C154" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="136">
@@ -6226,7 +6226,7 @@
         <v>454</v>
       </c>
       <c r="C155" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="144">
@@ -6237,7 +6237,7 @@
         <v>454</v>
       </c>
       <c r="C156" s="15" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="150">
@@ -6248,7 +6248,7 @@
         <v>455</v>
       </c>
       <c r="C157" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="144">
@@ -6259,7 +6259,7 @@
         <v>455</v>
       </c>
       <c r="C158" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="112">
@@ -6270,7 +6270,7 @@
         <v>455</v>
       </c>
       <c r="C159" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="120">
@@ -6281,7 +6281,7 @@
         <v>457</v>
       </c>
       <c r="C160" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="160">
@@ -6292,7 +6292,7 @@
         <v>458</v>
       </c>
       <c r="C161" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="224">
@@ -6303,7 +6303,7 @@
         <v>455</v>
       </c>
       <c r="C162" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="192">
@@ -6314,7 +6314,7 @@
         <v>457</v>
       </c>
       <c r="C163" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="160">
@@ -6325,7 +6325,7 @@
         <v>452</v>
       </c>
       <c r="C164" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="176">
@@ -6336,7 +6336,7 @@
         <v>455</v>
       </c>
       <c r="C165" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="192">
@@ -6347,7 +6347,7 @@
         <v>458</v>
       </c>
       <c r="C166" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="160">
@@ -6358,7 +6358,7 @@
         <v>457</v>
       </c>
       <c r="C167" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="112">
@@ -6369,7 +6369,7 @@
         <v>454</v>
       </c>
       <c r="C168" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="176">
@@ -6380,7 +6380,7 @@
         <v>458</v>
       </c>
       <c r="C169" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="192">
@@ -6391,7 +6391,7 @@
         <v>459</v>
       </c>
       <c r="C170" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="224">
@@ -6402,7 +6402,7 @@
         <v>455</v>
       </c>
       <c r="C171" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="240">
@@ -6413,7 +6413,7 @@
         <v>454</v>
       </c>
       <c r="C172" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="176">
@@ -6424,7 +6424,7 @@
         <v>457</v>
       </c>
       <c r="C173" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="160">
@@ -6435,7 +6435,7 @@
         <v>460</v>
       </c>
       <c r="C174" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="192">
@@ -6446,7 +6446,7 @@
         <v>455</v>
       </c>
       <c r="C175" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="128">
@@ -6457,7 +6457,7 @@
         <v>456</v>
       </c>
       <c r="C176" s="15" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="192">
@@ -6468,7 +6468,7 @@
         <v>454</v>
       </c>
       <c r="C177" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="112">
@@ -6476,10 +6476,10 @@
         <v>399</v>
       </c>
       <c r="B178" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C178" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="160">
@@ -6490,7 +6490,7 @@
         <v>460</v>
       </c>
       <c r="C179" s="15" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="176">
@@ -6501,7 +6501,7 @@
         <v>452</v>
       </c>
       <c r="C180" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="128">
@@ -6512,18 +6512,18 @@
         <v>452</v>
       </c>
       <c r="C181" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="192">
       <c r="A182" s="11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B182" s="15" t="s">
         <v>452</v>
       </c>
       <c r="C182" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="96">
@@ -6534,7 +6534,7 @@
         <v>460</v>
       </c>
       <c r="C183" s="15" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="128">
@@ -6545,7 +6545,7 @@
         <v>460</v>
       </c>
       <c r="C184" s="15" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="176">
@@ -6556,7 +6556,7 @@
         <v>460</v>
       </c>
       <c r="C185" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="128">
@@ -6567,7 +6567,7 @@
         <v>452</v>
       </c>
       <c r="C186" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="144">
@@ -6578,7 +6578,7 @@
         <v>456</v>
       </c>
       <c r="C187" s="15" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="144">
@@ -6589,7 +6589,7 @@
         <v>460</v>
       </c>
       <c r="C188" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="144">
@@ -6600,7 +6600,7 @@
         <v>458</v>
       </c>
       <c r="C189" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="144">
@@ -6611,7 +6611,7 @@
         <v>455</v>
       </c>
       <c r="C190" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="144">
@@ -6622,7 +6622,7 @@
         <v>458</v>
       </c>
       <c r="C191" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="144">
@@ -6633,7 +6633,7 @@
         <v>459</v>
       </c>
       <c r="C192" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="160">
@@ -6644,7 +6644,7 @@
         <v>458</v>
       </c>
       <c r="C193" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="224">
@@ -6655,7 +6655,7 @@
         <v>459</v>
       </c>
       <c r="C194" s="15" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="112">
@@ -6666,7 +6666,7 @@
         <v>458</v>
       </c>
       <c r="C195" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="192">
@@ -6677,7 +6677,7 @@
         <v>458</v>
       </c>
       <c r="C196" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="128">
@@ -6688,7 +6688,7 @@
         <v>458</v>
       </c>
       <c r="C197" s="15" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="144">
@@ -6699,7 +6699,7 @@
         <v>458</v>
       </c>
       <c r="C198" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="144">
@@ -6710,7 +6710,7 @@
         <v>452</v>
       </c>
       <c r="C199" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="128">
@@ -6721,7 +6721,7 @@
         <v>452</v>
       </c>
       <c r="C200" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="128">
@@ -6732,18 +6732,18 @@
         <v>452</v>
       </c>
       <c r="C201" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="160">
       <c r="A202" s="11" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B202" s="15" t="s">
         <v>460</v>
       </c>
       <c r="C202" s="15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="128">
@@ -6754,7 +6754,7 @@
         <v>459</v>
       </c>
       <c r="C203" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="144">
@@ -6765,7 +6765,7 @@
         <v>454</v>
       </c>
       <c r="C204" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="144">
@@ -6776,7 +6776,7 @@
         <v>459</v>
       </c>
       <c r="C205" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="160">
@@ -6787,7 +6787,7 @@
         <v>458</v>
       </c>
       <c r="C206" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="128">
@@ -6798,7 +6798,7 @@
         <v>452</v>
       </c>
       <c r="C207" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="192">
@@ -6809,7 +6809,7 @@
         <v>454</v>
       </c>
       <c r="C208" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="128">
@@ -6820,7 +6820,7 @@
         <v>455</v>
       </c>
       <c r="C209" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="160">
@@ -6831,7 +6831,7 @@
         <v>457</v>
       </c>
       <c r="C210" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="176">
@@ -6842,7 +6842,7 @@
         <v>458</v>
       </c>
       <c r="C211" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="96">
@@ -6853,7 +6853,7 @@
         <v>454</v>
       </c>
       <c r="C212" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="128">
@@ -6864,7 +6864,7 @@
         <v>454</v>
       </c>
       <c r="C213" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="112">
@@ -6875,18 +6875,18 @@
         <v>454</v>
       </c>
       <c r="C214" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="80">
       <c r="A215" s="8" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B215" s="15" t="s">
         <v>455</v>
       </c>
       <c r="C215" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="96">
@@ -6897,7 +6897,7 @@
         <v>458</v>
       </c>
       <c r="C216" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="96">
@@ -6905,7 +6905,7 @@
         <v>435</v>
       </c>
       <c r="C217" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="128">
@@ -6916,7 +6916,7 @@
         <v>457</v>
       </c>
       <c r="C218" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="144">
@@ -6927,7 +6927,7 @@
         <v>457</v>
       </c>
       <c r="C219" s="15" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="144">
@@ -6938,7 +6938,7 @@
         <v>454</v>
       </c>
       <c r="C220" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="96">
@@ -6949,7 +6949,7 @@
         <v>455</v>
       </c>
       <c r="C221" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="80">
@@ -6960,7 +6960,7 @@
         <v>459</v>
       </c>
       <c r="C222" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="112">
@@ -6971,7 +6971,7 @@
         <v>455</v>
       </c>
       <c r="C223" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="128">
@@ -6982,7 +6982,7 @@
         <v>458</v>
       </c>
       <c r="C224" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="96">
@@ -6993,7 +6993,7 @@
         <v>452</v>
       </c>
       <c r="C225" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="112">
@@ -7004,7 +7004,7 @@
         <v>456</v>
       </c>
       <c r="C226" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="192">
@@ -7015,7 +7015,7 @@
         <v>455</v>
       </c>
       <c r="C227" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="144">
@@ -7026,7 +7026,7 @@
         <v>455</v>
       </c>
       <c r="C228" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="112">
@@ -7037,7 +7037,7 @@
         <v>460</v>
       </c>
       <c r="C229" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="128">
@@ -7048,18 +7048,18 @@
         <v>452</v>
       </c>
       <c r="C230" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="144">
       <c r="A231" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B231" s="15" t="s">
         <v>453</v>
       </c>
       <c r="C231" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="176">
@@ -7070,7 +7070,7 @@
         <v>455</v>
       </c>
       <c r="C232" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="144">
@@ -7081,7 +7081,7 @@
         <v>458</v>
       </c>
       <c r="C233" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="144">
@@ -7092,7 +7092,7 @@
         <v>455</v>
       </c>
       <c r="C234" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="192">
@@ -7103,7 +7103,7 @@
         <v>459</v>
       </c>
       <c r="C235" s="15" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="224">
@@ -7114,7 +7114,7 @@
         <v>455</v>
       </c>
       <c r="C236" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="240">
@@ -7125,7 +7125,7 @@
         <v>454</v>
       </c>
       <c r="C237" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="176">
@@ -7136,7 +7136,7 @@
         <v>457</v>
       </c>
       <c r="C238" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,25 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/migueljimenez/code/snippet-search-app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC5DA85-DCFD-F945-BAD8-9F247652637D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE06B5BE-77B7-9842-B88B-71ABA5D2BB11}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="13860" xr2:uid="{1E5D2228-03B9-BF47-8C8C-3AA41A5E1D6F}"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="13860" activeTab="1" xr2:uid="{1E5D2228-03B9-BF47-8C8C-3AA41A5E1D6F}"/>
   </bookViews>
   <sheets>
     <sheet name="strengths" sheetId="1" r:id="rId1"/>
     <sheet name="aods" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1950,8 +1956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A919D8BC-4DAD-6C40-85B3-AE1CBC1CAA41}">
   <dimension ref="A1:E230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A212" workbookViewId="0">
-      <selection activeCell="A211" sqref="A211"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2430,7 +2436,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="105">
+    <row r="43" spans="1:3" ht="112">
       <c r="A43" s="7" t="s">
         <v>48</v>
       </c>
@@ -2441,7 +2447,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="105">
+    <row r="44" spans="1:3" ht="112">
       <c r="A44" s="7" t="s">
         <v>49</v>
       </c>
@@ -2452,7 +2458,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="60">
+    <row r="45" spans="1:3" ht="64">
       <c r="A45" s="7" t="s">
         <v>50</v>
       </c>
@@ -2463,7 +2469,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="75">
+    <row r="46" spans="1:3" ht="80">
       <c r="A46" s="7" t="s">
         <v>51</v>
       </c>
@@ -3145,7 +3151,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="90">
+    <row r="108" spans="1:3" ht="96">
       <c r="A108" s="9" t="s">
         <v>112</v>
       </c>
@@ -3156,7 +3162,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="75">
+    <row r="109" spans="1:3" ht="80">
       <c r="A109" s="9" t="s">
         <v>113</v>
       </c>
@@ -3167,7 +3173,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="75">
+    <row r="110" spans="1:3" ht="80">
       <c r="A110" s="9" t="s">
         <v>114</v>
       </c>
@@ -3178,7 +3184,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="75">
+    <row r="111" spans="1:3" ht="80">
       <c r="A111" s="9" t="s">
         <v>115</v>
       </c>
@@ -3189,7 +3195,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="105">
+    <row r="112" spans="1:3" ht="112">
       <c r="A112" s="9" t="s">
         <v>116</v>
       </c>
@@ -3200,7 +3206,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="90">
+    <row r="113" spans="1:3" ht="112">
       <c r="A113" s="9" t="s">
         <v>117</v>
       </c>
@@ -3211,7 +3217,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="105">
+    <row r="114" spans="1:3" ht="112">
       <c r="A114" s="9" t="s">
         <v>118</v>
       </c>
@@ -3222,7 +3228,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="90">
+    <row r="115" spans="1:3" ht="96">
       <c r="A115" s="9" t="s">
         <v>119</v>
       </c>
@@ -3233,7 +3239,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="90">
+    <row r="116" spans="1:3" ht="112">
       <c r="A116" s="9" t="s">
         <v>120</v>
       </c>
@@ -3244,7 +3250,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="75">
+    <row r="117" spans="1:3" ht="96">
       <c r="A117" s="9" t="s">
         <v>121</v>
       </c>
@@ -3255,7 +3261,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="75">
+    <row r="118" spans="1:3" ht="80">
       <c r="A118" s="9" t="s">
         <v>122</v>
       </c>
@@ -3266,7 +3272,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="75">
+    <row r="119" spans="1:3" ht="96">
       <c r="A119" s="9" t="s">
         <v>123</v>
       </c>
@@ -3277,7 +3283,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="90">
+    <row r="120" spans="1:3" ht="96">
       <c r="A120" s="9" t="s">
         <v>124</v>
       </c>
@@ -3310,7 +3316,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="135">
+    <row r="123" spans="1:3" ht="160">
       <c r="A123" s="9" t="s">
         <v>127</v>
       </c>
@@ -3343,7 +3349,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="90">
+    <row r="126" spans="1:3" ht="96">
       <c r="A126" s="9" t="s">
         <v>130</v>
       </c>
@@ -3376,7 +3382,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="105">
+    <row r="129" spans="1:3" ht="112">
       <c r="A129" s="9" t="s">
         <v>133</v>
       </c>
@@ -3409,7 +3415,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="105">
+    <row r="132" spans="1:3" ht="112">
       <c r="A132" s="9" t="s">
         <v>136</v>
       </c>
@@ -3442,7 +3448,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="75">
+    <row r="135" spans="1:3" ht="80">
       <c r="A135" s="9" t="s">
         <v>139</v>
       </c>
@@ -3475,7 +3481,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="75">
+    <row r="138" spans="1:3" ht="80">
       <c r="A138" s="9" t="s">
         <v>142</v>
       </c>
@@ -3508,7 +3514,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="90">
+    <row r="141" spans="1:3" ht="96">
       <c r="A141" s="9" t="s">
         <v>145</v>
       </c>
@@ -3541,7 +3547,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="105">
+    <row r="144" spans="1:3" ht="112">
       <c r="A144" s="9" t="s">
         <v>148</v>
       </c>
@@ -3574,7 +3580,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="90">
+    <row r="147" spans="1:3" ht="96">
       <c r="A147" s="9" t="s">
         <v>151</v>
       </c>
@@ -3607,7 +3613,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="90">
+    <row r="150" spans="1:3" ht="112">
       <c r="A150" s="9" t="s">
         <v>154</v>
       </c>
@@ -4507,8 +4513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F060731-35FE-2848-B488-2657B95A6D77}">
   <dimension ref="A1:E238"/>
   <sheetViews>
-    <sheetView topLeftCell="A238" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A238"/>
+    <sheetView tabSelected="1" topLeftCell="A229" zoomScale="180" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A241" sqref="A241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5844,7 +5850,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="120">
+    <row r="121" spans="1:3" ht="144">
       <c r="A121" s="9" t="s">
         <v>347</v>
       </c>
@@ -5855,7 +5861,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="120">
+    <row r="122" spans="1:3" ht="128">
       <c r="A122" s="9" t="s">
         <v>348</v>
       </c>
@@ -5866,7 +5872,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="120">
+    <row r="123" spans="1:3" ht="128">
       <c r="A123" s="9" t="s">
         <v>349</v>
       </c>
@@ -5877,7 +5883,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="165">
+    <row r="124" spans="1:3" ht="176">
       <c r="A124" s="9" t="s">
         <v>350</v>
       </c>
@@ -5888,7 +5894,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="90">
+    <row r="125" spans="1:3" ht="112">
       <c r="A125" s="9" t="s">
         <v>351</v>
       </c>
@@ -5899,7 +5905,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="120">
+    <row r="126" spans="1:3" ht="128">
       <c r="A126" s="9" t="s">
         <v>352</v>
       </c>
@@ -5910,7 +5916,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="135">
+    <row r="127" spans="1:3" ht="144">
       <c r="A127" s="9" t="s">
         <v>353</v>
       </c>
@@ -5943,7 +5949,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="165">
+    <row r="130" spans="1:3" ht="192">
       <c r="A130" s="9" t="s">
         <v>356</v>
       </c>
@@ -5976,7 +5982,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="180">
+    <row r="133" spans="1:3" ht="192">
       <c r="A133" s="9" t="s">
         <v>479</v>
       </c>
@@ -6009,7 +6015,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="165">
+    <row r="136" spans="1:3" ht="176">
       <c r="A136" s="9" t="s">
         <v>361</v>
       </c>
@@ -6042,7 +6048,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="150">
+    <row r="139" spans="1:3" ht="176">
       <c r="A139" s="9" t="s">
         <v>364</v>
       </c>
@@ -6075,7 +6081,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="120">
+    <row r="142" spans="1:3" ht="128">
       <c r="A142" s="9" t="s">
         <v>367</v>
       </c>
@@ -6108,7 +6114,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="120">
+    <row r="145" spans="1:3" ht="144">
       <c r="A145" s="9" t="s">
         <v>370</v>
       </c>
@@ -6141,7 +6147,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="135">
+    <row r="148" spans="1:3" ht="160">
       <c r="A148" s="12" t="s">
         <v>373</v>
       </c>
@@ -6174,7 +6180,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="135">
+    <row r="151" spans="1:3" ht="144">
       <c r="A151" s="9" t="s">
         <v>376</v>
       </c>
@@ -6207,7 +6213,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="135">
+    <row r="154" spans="1:3" ht="144">
       <c r="A154" s="9" t="s">
         <v>379</v>
       </c>
@@ -6218,7 +6224,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="136">
+    <row r="155" spans="1:3" ht="160">
       <c r="A155" s="4" t="s">
         <v>380</v>
       </c>
@@ -6240,7 +6246,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="150">
+    <row r="157" spans="1:3" ht="176">
       <c r="A157" s="9" t="s">
         <v>382</v>
       </c>
@@ -6273,7 +6279,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="120">
+    <row r="160" spans="1:3" ht="128">
       <c r="A160" s="9" t="s">
         <v>385</v>
       </c>
@@ -6372,7 +6378,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="176">
+    <row r="169" spans="1:3" ht="192">
       <c r="A169" s="4" t="s">
         <v>394</v>
       </c>
@@ -7073,7 +7079,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="233" spans="1:3" ht="144">
+    <row r="233" spans="1:3" ht="160">
       <c r="A233" s="4" t="s">
         <v>450</v>
       </c>
